--- a/rcp_phase234_planning.xlsx
+++ b/rcp_phase234_planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB23ED7-CF6D-E143-AE9F-24016960B0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A5212-568F-D847-A4FA-399414124D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL256IP" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="PlanningV2" sheetId="6" r:id="rId4"/>
     <sheet name="IP Datagram" sheetId="8" r:id="rId5"/>
     <sheet name="PlanningV3" sheetId="9" r:id="rId6"/>
+    <sheet name="List of Commands" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="238">
   <si>
     <t>/24</t>
   </si>
@@ -545,12 +546,6 @@
     <t>1 - 125</t>
   </si>
   <si>
-    <t>192.168.7.193</t>
-  </si>
-  <si>
-    <t>192.168.7.194</t>
-  </si>
-  <si>
     <t>255.255.255.</t>
   </si>
   <si>
@@ -656,52 +651,120 @@
     <t>Any</t>
   </si>
   <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>192.168.7.190</t>
-  </si>
-  <si>
-    <t>pc0</t>
-  </si>
-  <si>
-    <t>laptop0</t>
-  </si>
-  <si>
-    <t>pc1</t>
-  </si>
-  <si>
-    <t>laptop1</t>
-  </si>
-  <si>
-    <t>192.168.7.223</t>
-  </si>
-  <si>
-    <t>r0</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
     <t>192.168.7.249</t>
   </si>
   <si>
     <t>192.168.7.245</t>
   </si>
   <si>
-    <t>8.8.8.8</t>
-  </si>
-  <si>
-    <t>255.255.0.0</t>
-  </si>
-  <si>
     <t>192.168.7.250</t>
   </si>
   <si>
     <t>192.168.7.246</t>
+  </si>
+  <si>
+    <t>192.168.7.0/25</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>8.8.8.8/30</t>
+  </si>
+  <si>
+    <t>192.168.7.128/26</t>
+  </si>
+  <si>
+    <t>192.168.7.192/27</t>
+  </si>
+  <si>
+    <t>LAN A / LAN B</t>
+  </si>
+  <si>
+    <t>&gt;
+&gt;
+&gt;
+&gt;
+&gt;
+&gt;</t>
+  </si>
+  <si>
+    <t>arp -a</t>
+  </si>
+  <si>
+    <t>DHCP-Server</t>
+  </si>
+  <si>
+    <t>DNS-Server</t>
+  </si>
+  <si>
+    <t>HTTP-Server</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.130</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.193</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.194</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.190</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.222</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.254</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.1</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.2</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.3</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.254</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.1</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.2</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.3</t>
+  </si>
+  <si>
+    <t>tracert 8.8.8.8</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.129</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.253</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.130</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.129</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.193</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.194</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.253</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.249</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,114 +1195,230 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1251,69 +1430,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,136 +1549,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4913,22 +5010,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -5328,93 +5425,93 @@
       <c r="AC2" s="31"/>
       <c r="AD2" s="30"/>
       <c r="AE2" s="30"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="60"/>
+      <c r="AF2" s="120"/>
+      <c r="AG2" s="120"/>
+      <c r="AH2" s="120"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="116"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="116"/>
+      <c r="AM2" s="116"/>
+      <c r="AN2" s="116"/>
+      <c r="AO2" s="116"/>
+      <c r="AP2" s="116"/>
+      <c r="AQ2" s="116"/>
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="117"/>
     </row>
     <row r="3" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="118" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
       <c r="T3" s="30"/>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="65" t="s">
+      <c r="V3" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="65" t="s">
+      <c r="W3" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="65" t="s">
+      <c r="X3" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="65" t="s">
+      <c r="Y3" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="65" t="s">
+      <c r="Z3" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="79" t="s">
+      <c r="AA3" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="AB3" s="65" t="s">
+      <c r="AB3" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="65" t="s">
+      <c r="AC3" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="AD3" s="65" t="s">
+      <c r="AD3" s="105" t="s">
         <v>58</v>
       </c>
       <c r="AE3" s="30"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="60"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120"/>
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="117"/>
     </row>
     <row r="4" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="64"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="30"/>
       <c r="D4" s="40">
         <v>0</v>
@@ -5465,16 +5562,16 @@
         <v>255</v>
       </c>
       <c r="T4" s="30"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106"/>
     </row>
     <row r="5" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
@@ -5889,62 +5986,62 @@
       </c>
     </row>
     <row r="13" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B13" s="67"/>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="107"/>
+      <c r="D13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68" t="s">
+      <c r="I13" s="108"/>
+      <c r="J13" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69" t="s">
+      <c r="K13" s="108"/>
+      <c r="L13" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="M13" s="69"/>
-      <c r="N13" s="71" t="s">
+      <c r="M13" s="109"/>
+      <c r="N13" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="71"/>
-      <c r="P13" s="72" t="s">
+      <c r="O13" s="111"/>
+      <c r="P13" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="73" t="s">
+      <c r="Q13" s="112"/>
+      <c r="R13" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="S13" s="73"/>
+      <c r="S13" s="113"/>
     </row>
     <row r="14" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B14" s="59"/>
-      <c r="D14" s="74" t="s">
+      <c r="B14" s="99"/>
+      <c r="D14" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74" t="s">
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
       <c r="U14" s="41" t="s">
         <v>51</v>
       </c>
@@ -5966,25 +6063,25 @@
       <c r="AA14" s="41"/>
     </row>
     <row r="15" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B15" s="59"/>
-      <c r="D15" s="75" t="s">
+      <c r="B15" s="99"/>
+      <c r="D15" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
       <c r="U15" s="41" t="s">
         <v>75</v>
       </c>
@@ -6005,25 +6102,25 @@
       </c>
     </row>
     <row r="16" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="59"/>
-      <c r="D16" s="76" t="s">
+      <c r="B16" s="99"/>
+      <c r="D16" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
       <c r="U16" s="41" t="s">
         <v>73</v>
       </c>
@@ -6044,25 +6141,25 @@
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B17" s="59"/>
-      <c r="D17" s="77" t="s">
+      <c r="B17" s="99"/>
+      <c r="D17" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
       <c r="U17" s="41" t="s">
         <v>77</v>
       </c>
@@ -6083,25 +6180,25 @@
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B18" s="59"/>
-      <c r="D18" s="78" t="s">
+      <c r="B18" s="99"/>
+      <c r="D18" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
       <c r="U18" s="41" t="s">
         <v>78</v>
       </c>
@@ -6122,25 +6219,25 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="59"/>
-      <c r="D19" s="70" t="s">
+      <c r="B19" s="99"/>
+      <c r="D19" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
       <c r="U19" s="41" t="s">
         <v>80</v>
       </c>
@@ -6373,26 +6470,12 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M15"/>
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="N13:O16"/>
-    <mergeCell ref="P13:Q17"/>
-    <mergeCell ref="R13:S18"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="AR2:AR3"/>
     <mergeCell ref="AS2:AS3"/>
     <mergeCell ref="B3:B4"/>
@@ -6409,12 +6492,26 @@
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="AQ2:AQ3"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M15"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="N13:O16"/>
+    <mergeCell ref="P13:Q17"/>
+    <mergeCell ref="R13:S18"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6424,8 +6521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A19DE15-A1B4-4592-9514-25A784733BD2}">
   <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6:AG7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6474,28 +6571,28 @@
     </row>
     <row r="2" spans="1:36" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="U2" s="65" t="s">
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="U2" s="105" t="s">
         <v>51</v>
       </c>
       <c r="V2" s="41" t="s">
@@ -6513,36 +6610,36 @@
       <c r="Z2" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AB2" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="65" t="s">
+      <c r="AC2" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="80" t="s">
+      <c r="AE2" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="79" t="s">
+      <c r="AF2" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="80" t="s">
+      <c r="AG2" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AH2" s="80" t="s">
+      <c r="AH2" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AI2" s="80" t="s">
+      <c r="AI2" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AJ2" s="80" t="s">
+      <c r="AJ2" s="104" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="64"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="30"/>
       <c r="D3" s="40">
         <v>0</v>
@@ -6593,23 +6690,23 @@
         <v>255</v>
       </c>
       <c r="T3" s="30"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="80" t="s">
+      <c r="U3" s="106"/>
+      <c r="V3" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AE3" s="88"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="88"/>
-      <c r="AH3" s="88"/>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="121"/>
+      <c r="AI3" s="121"/>
+      <c r="AJ3" s="121"/>
     </row>
     <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
@@ -6666,7 +6763,7 @@
       <c r="AF4" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AG4" s="81" t="s">
+      <c r="AG4" s="122" t="s">
         <v>59</v>
       </c>
       <c r="AH4" s="44" t="s">
@@ -6734,7 +6831,7 @@
       <c r="AF5" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="AG5" s="66"/>
+      <c r="AG5" s="106"/>
       <c r="AH5" s="44" t="s">
         <v>89</v>
       </c>
@@ -6800,7 +6897,7 @@
       <c r="AF6" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AG6" s="81" t="s">
+      <c r="AG6" s="122" t="s">
         <v>60</v>
       </c>
       <c r="AH6" s="44" t="s">
@@ -6835,7 +6932,7 @@
       <c r="R7" s="35"/>
       <c r="S7" s="35"/>
       <c r="T7" s="31"/>
-      <c r="U7" s="81" t="s">
+      <c r="U7" s="122" t="s">
         <v>61</v>
       </c>
       <c r="V7" s="49">
@@ -6864,7 +6961,7 @@
       <c r="AF7" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="AG7" s="66"/>
+      <c r="AG7" s="106"/>
       <c r="AH7" s="44" t="s">
         <v>90</v>
       </c>
@@ -6897,7 +6994,7 @@
       <c r="R8" s="35"/>
       <c r="S8" s="35"/>
       <c r="T8" s="30"/>
-      <c r="U8" s="66"/>
+      <c r="U8" s="106"/>
       <c r="V8" s="48">
         <v>12</v>
       </c>
@@ -6918,7 +7015,7 @@
       <c r="AC8" s="42">
         <v>0</v>
       </c>
-      <c r="AE8" s="81" t="s">
+      <c r="AE8" s="122" t="s">
         <v>80</v>
       </c>
       <c r="AF8" s="42" t="s">
@@ -6982,7 +7079,7 @@
       <c r="AC9" s="42">
         <v>2</v>
       </c>
-      <c r="AE9" s="65"/>
+      <c r="AE9" s="105"/>
       <c r="AF9" s="42" t="s">
         <v>134</v>
       </c>
@@ -7044,7 +7141,7 @@
       <c r="AC10" s="42">
         <v>2</v>
       </c>
-      <c r="AE10" s="66"/>
+      <c r="AE10" s="106"/>
       <c r="AF10" s="41" t="s">
         <v>112</v>
       </c>
@@ -7099,7 +7196,7 @@
       <c r="AC11" s="42">
         <v>2</v>
       </c>
-      <c r="AE11" s="81" t="s">
+      <c r="AE11" s="122" t="s">
         <v>81</v>
       </c>
       <c r="AF11" s="42" t="s">
@@ -7117,42 +7214,42 @@
       <c r="AJ11" s="42"/>
     </row>
     <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68" t="s">
+      <c r="E12" s="108"/>
+      <c r="F12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68" t="s">
+      <c r="G12" s="108"/>
+      <c r="H12" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="83" t="s">
+      <c r="I12" s="108"/>
+      <c r="J12" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="84"/>
-      <c r="L12" s="69" t="s">
+      <c r="K12" s="124"/>
+      <c r="L12" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="69"/>
-      <c r="N12" s="71" t="s">
+      <c r="M12" s="109"/>
+      <c r="N12" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="72" t="s">
+      <c r="O12" s="111"/>
+      <c r="P12" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="73" t="s">
+      <c r="Q12" s="112"/>
+      <c r="R12" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="73"/>
-      <c r="AE12" s="65"/>
+      <c r="S12" s="113"/>
+      <c r="AE12" s="105"/>
       <c r="AF12" s="42" t="s">
         <v>136</v>
       </c>
@@ -7168,28 +7265,28 @@
       <c r="AJ12" s="42"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B13" s="86"/>
-      <c r="D13" s="74" t="s">
+      <c r="B13" s="126"/>
+      <c r="D13" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="AE13" s="65"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="AE13" s="105"/>
       <c r="AF13" s="41" t="s">
         <v>114</v>
       </c>
@@ -7205,26 +7302,26 @@
       <c r="AJ13" s="42"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="86"/>
-      <c r="D14" s="75" t="s">
+      <c r="B14" s="126"/>
+      <c r="D14" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="AE14" s="66"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="AE14" s="106"/>
       <c r="AF14" s="42" t="s">
         <v>132</v>
       </c>
@@ -7240,26 +7337,26 @@
       <c r="AJ14" s="42"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B15" s="86"/>
-      <c r="D15" s="76" t="s">
+      <c r="B15" s="126"/>
+      <c r="D15" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="AE15" s="81" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="AE15" s="122" t="s">
         <v>82</v>
       </c>
       <c r="AF15" s="42" t="s">
@@ -7277,26 +7374,26 @@
       <c r="AJ15" s="42"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B16" s="86"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="126"/>
+      <c r="D16" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="AE16" s="65"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="AE16" s="105"/>
       <c r="AF16" s="42" t="s">
         <v>137</v>
       </c>
@@ -7312,26 +7409,26 @@
       <c r="AJ16" s="42"/>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" s="86"/>
-      <c r="D17" s="78" t="s">
+      <c r="B17" s="126"/>
+      <c r="D17" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="AE17" s="66"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="AE17" s="106"/>
       <c r="AF17" s="41" t="s">
         <v>138</v>
       </c>
@@ -7347,25 +7444,25 @@
       <c r="AJ17" s="42"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="D18" s="70" t="s">
+      <c r="B18" s="127"/>
+      <c r="D18" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
       <c r="Z18" s="41"/>
       <c r="AE18" s="42" t="s">
         <v>84</v>
@@ -7373,7 +7470,7 @@
       <c r="AF18" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="AG18" s="81" t="s">
+      <c r="AG18" s="122" t="s">
         <v>88</v>
       </c>
       <c r="AH18" s="44" t="s">
@@ -7394,7 +7491,7 @@
       <c r="AF19" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AG19" s="65"/>
+      <c r="AG19" s="105"/>
       <c r="AH19" s="44" t="s">
         <v>91</v>
       </c>
@@ -7413,7 +7510,7 @@
       <c r="AF20" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="AG20" s="66"/>
+      <c r="AG20" s="106"/>
       <c r="AH20" s="44" t="s">
         <v>92</v>
       </c>
@@ -7426,124 +7523,151 @@
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z21" s="41"/>
-      <c r="AE21" s="81" t="s">
+      <c r="AE21" s="122" t="s">
         <v>98</v>
       </c>
       <c r="AF21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="AG21" s="81" t="s">
+      <c r="AG21" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="107"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z22" s="41"/>
-      <c r="AE22" s="65"/>
+      <c r="AE22" s="105"/>
       <c r="AF22" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
+      <c r="AG22" s="105"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z23" s="41"/>
-      <c r="AE23" s="66"/>
+      <c r="AE23" s="106"/>
       <c r="AF23" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
+      <c r="AG23" s="106"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z24" s="41"/>
-      <c r="AE24" s="81" t="s">
+      <c r="AE24" s="122" t="s">
         <v>99</v>
       </c>
       <c r="AF24" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="AG24" s="81" t="s">
+      <c r="AG24" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="99"/>
+      <c r="AJ24" s="99"/>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z25" s="41"/>
-      <c r="AE25" s="65"/>
+      <c r="AE25" s="105"/>
       <c r="AF25" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
+      <c r="AG25" s="105"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="Z26" s="41"/>
-      <c r="AE26" s="66"/>
+      <c r="AE26" s="106"/>
       <c r="AF26" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE27" s="81" t="s">
+      <c r="AE27" s="122" t="s">
         <v>101</v>
       </c>
       <c r="AF27" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="AG27" s="81" t="s">
+      <c r="AG27" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE28" s="65"/>
+      <c r="AE28" s="105"/>
       <c r="AF28" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="AG28" s="65"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE29" s="65"/>
+      <c r="AE29" s="105"/>
       <c r="AF29" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="AG29" s="65"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AE30" s="66"/>
+      <c r="AE30" s="106"/>
       <c r="AF30" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="82"/>
-      <c r="AI30" s="82"/>
-      <c r="AJ30" s="82"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="128"/>
+      <c r="AJ30" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="AG4:AG5"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AG18:AG20"/>
+    <mergeCell ref="AG21:AG23"/>
+    <mergeCell ref="AG24:AG26"/>
+    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="AE21:AE23"/>
+    <mergeCell ref="AE24:AE26"/>
+    <mergeCell ref="AE27:AE30"/>
+    <mergeCell ref="AH21:AJ30"/>
+    <mergeCell ref="AG27:AG30"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="R12:S17"/>
+    <mergeCell ref="D2:S2"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D18:S18"/>
+    <mergeCell ref="D17:Q17"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:O16"/>
     <mergeCell ref="L12:M14"/>
     <mergeCell ref="N12:O15"/>
     <mergeCell ref="P12:Q16"/>
@@ -7560,33 +7684,6 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AE15:AE17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="R12:S17"/>
-    <mergeCell ref="D2:S2"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="D18:S18"/>
-    <mergeCell ref="D17:Q17"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="AE11:AE14"/>
-    <mergeCell ref="AE21:AE23"/>
-    <mergeCell ref="AE24:AE26"/>
-    <mergeCell ref="AE27:AE30"/>
-    <mergeCell ref="AH21:AJ30"/>
-    <mergeCell ref="AG27:AG30"/>
-    <mergeCell ref="AG4:AG5"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AG18:AG20"/>
-    <mergeCell ref="AG21:AG23"/>
-    <mergeCell ref="AG24:AG26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7613,7 +7710,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="129" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -7622,42 +7719,42 @@
       <c r="D2" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="130" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89" t="s">
+      <c r="F2" s="130"/>
+      <c r="G2" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90" t="s">
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="129" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="90"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="91"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="90"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="129"/>
+      <c r="C4" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="52" t="s">
         <v>157</v>
       </c>
@@ -7670,114 +7767,109 @@
       <c r="J4" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="91"/>
+      <c r="K4" s="131"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="90"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="129"/>
+      <c r="C5" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="91"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="131"/>
     </row>
     <row r="6" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="90"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="129"/>
+      <c r="C6" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89" t="s">
+      <c r="D6" s="130"/>
+      <c r="E6" s="130" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89" t="s">
+      <c r="F6" s="130"/>
+      <c r="G6" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="91"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="131"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="91"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="131"/>
     </row>
     <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="90"/>
-      <c r="C8" s="89" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="91"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
     </row>
     <row r="9" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="90"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="91"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
     </row>
     <row r="10" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="90"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="129"/>
+      <c r="C10" s="130" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
     </row>
     <row r="11" spans="2:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
     <mergeCell ref="K2:K9"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="G2:J2"/>
@@ -7788,6 +7880,11 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C7:J7"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7795,43 +7892,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA9DF8F-8295-3944-9B9F-E4CC6C25A6ED}">
-  <dimension ref="A1:AV36"/>
+  <dimension ref="A1:BA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="2.1640625" customWidth="1"/>
-    <col min="4" max="19" width="4" customWidth="1"/>
-    <col min="20" max="20" width="2.1640625" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="1.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="1.6640625" customWidth="1"/>
-    <col min="40" max="40" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="2.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.6640625" customWidth="1"/>
+    <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="1.6640625" customWidth="1"/>
+    <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="19" customWidth="1"/>
+    <col min="44" max="44" width="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="1.6640625" customWidth="1"/>
+    <col min="47" max="47" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -7856,1432 +7961,2114 @@
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AK1" s="31"/>
-    </row>
-    <row r="2" spans="1:48" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="31"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+    </row>
+    <row r="2" spans="1:53" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="C2" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2"/>
-      <c r="U2" s="111" t="s">
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2"/>
+      <c r="T2" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="132" t="s">
+      <c r="U2" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="132" t="s">
+      <c r="V2" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="132" t="s">
+      <c r="W2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="132" t="s">
+      <c r="X2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="145" t="s">
+      <c r="Y2" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="111" t="s">
+      <c r="Z2" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="111" t="s">
+      <c r="AA2" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="AC2" s="111" t="s">
+      <c r="AB2" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="138" t="s">
+      <c r="AD2" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="138" t="s">
+      <c r="AE2" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138" t="s">
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="109" t="s">
+      <c r="AH2" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="AJ2" s="109" t="s">
+      <c r="AI2" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="109" t="s">
+      <c r="AJ2" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="AM2" s="143" t="s">
+      <c r="AL2" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO2" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP2" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="AQ2" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="137"/>
+      <c r="AT2"/>
+      <c r="AU2" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV2" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW2" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="AX2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="96" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ2" s="137" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA2" s="137"/>
+    </row>
+    <row r="3" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="171"/>
+      <c r="C3" s="76">
+        <v>0</v>
+      </c>
+      <c r="D3" s="76">
+        <v>127</v>
+      </c>
+      <c r="E3" s="77">
+        <v>128</v>
+      </c>
+      <c r="F3" s="77">
+        <v>191</v>
+      </c>
+      <c r="G3" s="78">
+        <v>192</v>
+      </c>
+      <c r="H3" s="78">
+        <v>223</v>
+      </c>
+      <c r="I3" s="79">
+        <v>224</v>
+      </c>
+      <c r="J3" s="79">
+        <v>239</v>
+      </c>
+      <c r="K3" s="80">
+        <v>240</v>
+      </c>
+      <c r="L3" s="80">
+        <v>243</v>
+      </c>
+      <c r="M3" s="80">
+        <v>244</v>
+      </c>
+      <c r="N3" s="80">
+        <v>247</v>
+      </c>
+      <c r="O3" s="80">
+        <v>248</v>
+      </c>
+      <c r="P3" s="80">
+        <v>251</v>
+      </c>
+      <c r="Q3" s="80">
+        <v>252</v>
+      </c>
+      <c r="R3" s="80">
+        <v>255</v>
+      </c>
+      <c r="T3" s="144"/>
+      <c r="U3" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="144"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="144"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="137"/>
+      <c r="AL3" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN3" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ3" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="138" t="s">
+        <v>211</v>
+      </c>
+      <c r="AS3" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU3" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV3" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW3" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX3" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ3" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" s="62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="T4" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="55">
+        <v>252</v>
+      </c>
+      <c r="V4" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68">
+        <v>255</v>
+      </c>
+      <c r="Y4" s="68">
+        <v>252</v>
+      </c>
+      <c r="Z4" s="68">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="68">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="68">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF4" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="141" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="141"/>
+      <c r="AJ4" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO4" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP4" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="103"/>
+      <c r="AS4" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX4" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY4" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ4" s="104"/>
+      <c r="BA4" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="T5" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="U5" s="58">
+        <v>248</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41">
+        <v>251</v>
+      </c>
+      <c r="Y5" s="41">
+        <v>252</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="41">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE5" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF5" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="AN2" s="143" t="s">
+      <c r="AG5" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="72">
+        <v>129</v>
+      </c>
+      <c r="AI5" s="136">
+        <v>190</v>
+      </c>
+      <c r="AJ5" s="136">
+        <v>192</v>
+      </c>
+      <c r="AL5" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM5" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN5" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO5" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ5" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU5" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV5" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX5" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY5" s="135" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ5" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA5" s="135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="T6" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="54">
+        <v>244</v>
+      </c>
+      <c r="V6" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61">
+        <v>247</v>
+      </c>
+      <c r="Y6" s="61">
+        <v>252</v>
+      </c>
+      <c r="Z6" s="61">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="61">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="61">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE6" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF6" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="AO2" s="144" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="144"/>
-      <c r="AS2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT2" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="113"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="114">
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="73">
+        <v>130</v>
+      </c>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="105"/>
+      <c r="AN6" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO6" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="103"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="105"/>
+      <c r="AW6" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX6" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY6" s="103"/>
+      <c r="AZ6" s="103"/>
+      <c r="BA6" s="103"/>
+    </row>
+    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="T7" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="82">
+        <v>240</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41">
+        <v>243</v>
+      </c>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="41">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="41">
         <v>0</v>
       </c>
-      <c r="E3" s="114">
+      <c r="AD7" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE7" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF7" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG7" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH7" s="72">
+        <v>193</v>
+      </c>
+      <c r="AI7" s="136">
+        <v>223</v>
+      </c>
+      <c r="AJ7" s="136">
+        <v>224</v>
+      </c>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO7" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP7" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ7" s="104"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="AX7" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY7" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ7" s="104"/>
+      <c r="BA7" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="83">
+        <v>224</v>
+      </c>
+      <c r="V8" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="W8" s="84"/>
+      <c r="X8" s="41">
+        <v>239</v>
+      </c>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41">
+        <v>16</v>
+      </c>
+      <c r="AA8" s="41">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="41">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE8" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF8" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="73">
+        <v>194</v>
+      </c>
+      <c r="AI8" s="127"/>
+      <c r="AJ8" s="127"/>
+      <c r="AL8" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM8" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN8" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO8" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP8" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ8" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU8" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV8" s="122" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW8" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX8" s="98" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY8" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ8" s="135" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA8" s="135" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="T9" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="55">
+        <v>192</v>
+      </c>
+      <c r="V9" s="90" t="s">
+        <v>163</v>
+      </c>
+      <c r="W9" s="91">
+        <v>222</v>
+      </c>
+      <c r="X9" s="68">
+        <v>223</v>
+      </c>
+      <c r="Y9" s="68">
+        <v>224</v>
+      </c>
+      <c r="Z9" s="68">
+        <v>32</v>
+      </c>
+      <c r="AA9" s="68">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="68">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF9" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG9" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH9" s="72">
+        <v>249</v>
+      </c>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="136">
+        <v>252</v>
+      </c>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO9" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="AP9" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="103"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="95" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX9" s="95" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY9" s="103"/>
+      <c r="AZ9" s="103"/>
+      <c r="BA9" s="103"/>
+    </row>
+    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="T10" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="58">
+        <v>128</v>
+      </c>
+      <c r="V10" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="W10" s="84">
+        <v>190</v>
+      </c>
+      <c r="X10" s="41">
+        <v>191</v>
+      </c>
+      <c r="Y10" s="41">
+        <v>192</v>
+      </c>
+      <c r="Z10" s="41">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="41">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="41">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF10" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG10" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH10">
+        <v>245</v>
+      </c>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="126"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO10" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP10" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AX10" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY10" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ10" s="104"/>
+      <c r="BA10" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="T11" s="92" t="s">
+        <v>88</v>
+      </c>
+      <c r="U11" s="54">
+        <v>0</v>
+      </c>
+      <c r="V11" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="W11" s="94">
+        <v>126</v>
+      </c>
+      <c r="X11" s="61">
         <v>127</v>
       </c>
-      <c r="F3" s="114">
+      <c r="Y11" s="61">
         <v>128</v>
       </c>
-      <c r="G3" s="114">
+      <c r="Z11" s="61">
+        <v>128</v>
+      </c>
+      <c r="AA11" s="61">
+        <v>126</v>
+      </c>
+      <c r="AB11" s="61">
+        <v>126</v>
+      </c>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF11" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="74"/>
+    </row>
+    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="172" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="AD12" s="143" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF12" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG12" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH12" s="72">
+        <v>253</v>
+      </c>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="136">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B13" s="173"/>
+      <c r="C13" s="152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="153"/>
+      <c r="E13" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="165"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="166"/>
+      <c r="P13" s="166"/>
+      <c r="Q13" s="166"/>
+      <c r="R13" s="167"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF13" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG13" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH13">
+        <v>250</v>
+      </c>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="126"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B14" s="173"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="154" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="155"/>
+      <c r="G14" s="168" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="169"/>
+      <c r="AD14" s="144"/>
+      <c r="AE14" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF14" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG14" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH14">
+        <v>190</v>
+      </c>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B15" s="173"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="158"/>
+      <c r="I15" s="148" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="148"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="148"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="149"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF15" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG15" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH15" s="73">
+        <v>222</v>
+      </c>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B16" s="173"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="160" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="161"/>
+      <c r="K16" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="151"/>
+      <c r="AD16" s="143" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE16" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF16" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG16" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH16" s="72">
+        <v>254</v>
+      </c>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="136">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" s="173"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="AD17" s="144"/>
+      <c r="AE17" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF17" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG17" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH17">
+        <v>246</v>
+      </c>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="126"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B18" s="174"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="146"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF18" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG18" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH18" s="73">
+        <v>126</v>
+      </c>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD19" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE19" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF19" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG19" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH19" s="72">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="136">
+        <v>126</v>
+      </c>
+      <c r="AJ19" s="136">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD20" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE20" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF20" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG20" s="105"/>
+      <c r="AH20">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="126"/>
+      <c r="AJ20" s="126"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD21" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE21" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF21" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="H3" s="114">
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="73">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="127"/>
+      <c r="AJ21" s="127"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD22" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE22" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF22" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="114">
-        <v>223</v>
-      </c>
-      <c r="J3" s="114">
-        <v>224</v>
-      </c>
-      <c r="K3" s="114">
-        <v>239</v>
-      </c>
-      <c r="L3" s="114">
-        <v>240</v>
-      </c>
-      <c r="M3" s="114">
-        <v>243</v>
-      </c>
-      <c r="N3" s="114">
-        <v>244</v>
-      </c>
-      <c r="O3" s="114">
-        <v>247</v>
-      </c>
-      <c r="P3" s="114">
-        <v>248</v>
-      </c>
-      <c r="Q3" s="114">
-        <v>251</v>
-      </c>
-      <c r="R3" s="114">
-        <v>252</v>
-      </c>
-      <c r="S3" s="114">
-        <v>255</v>
-      </c>
-      <c r="U3" s="112"/>
-      <c r="V3" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110"/>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AM3" s="81" t="s">
+      <c r="AG22" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="AN3" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO3" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP3" s="142" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ3" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="U4" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="50">
-        <v>252</v>
-      </c>
-      <c r="W4" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42">
-        <v>255</v>
-      </c>
-      <c r="Z4" s="42">
-        <v>252</v>
-      </c>
-      <c r="AA4" s="42">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="42">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="139" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG4" s="140" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ4" s="105"/>
-      <c r="AK4" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO4" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP4" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ4" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="U5" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" s="50">
-        <v>248</v>
-      </c>
-      <c r="W5" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42">
-        <v>251</v>
-      </c>
-      <c r="Z5" s="42">
-        <v>252</v>
-      </c>
-      <c r="AA5" s="42">
-        <v>4</v>
-      </c>
-      <c r="AB5" s="42">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="132" t="s">
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="107"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD23" s="144"/>
+      <c r="AE23" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF23" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="AF5" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG5" s="135" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH5" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI5" s="133">
-        <v>129</v>
-      </c>
-      <c r="AJ5" s="106">
-        <v>190</v>
-      </c>
-      <c r="AK5" s="106">
-        <v>192</v>
-      </c>
-      <c r="AM5" s="81" t="s">
+      <c r="AG23" s="105"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF24" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" s="106"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="128"/>
+      <c r="AJ24" s="128"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD25" s="143" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF25" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG25" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="AN5" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO5" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP5" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ5" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="U6" s="119" t="s">
-        <v>68</v>
-      </c>
-      <c r="V6" s="50">
-        <v>244</v>
-      </c>
-      <c r="W6" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42">
-        <v>247</v>
-      </c>
-      <c r="Z6" s="42">
-        <v>252</v>
-      </c>
-      <c r="AA6" s="42">
-        <v>4</v>
-      </c>
-      <c r="AB6" s="42">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="42">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF6" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG6" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="134">
-        <v>130</v>
-      </c>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO6" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="AP6" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ6" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="U7" s="111" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" s="48">
-        <v>240</v>
-      </c>
-      <c r="W7" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42">
-        <v>243</v>
-      </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="42">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="42">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="132" t="s">
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="107"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF26" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="AF7" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG7" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH7" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI7" s="133">
-        <v>193</v>
-      </c>
-      <c r="AJ7" s="106">
-        <v>223</v>
-      </c>
-      <c r="AK7" s="106">
-        <v>224</v>
-      </c>
-      <c r="AM7" s="44" t="s">
+      <c r="AG26" s="105"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF27" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="128"/>
+      <c r="AJ27" s="128"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD28" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE28" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF28" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG28" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="AN7" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO7" s="141" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP7" s="141" t="s">
-        <v>203</v>
-      </c>
-      <c r="AQ7" s="141" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="49">
-        <v>224</v>
-      </c>
-      <c r="W8" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="42">
-        <v>239</v>
-      </c>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42">
-        <v>16</v>
-      </c>
-      <c r="AB8" s="42">
-        <v>14</v>
-      </c>
-      <c r="AC8" s="42">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF8" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG8" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="134">
-        <v>194</v>
-      </c>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AS8" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="U9" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" s="50">
-        <v>192</v>
-      </c>
-      <c r="W9" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="X9" s="43">
-        <v>222</v>
-      </c>
-      <c r="Y9" s="42">
-        <v>223</v>
-      </c>
-      <c r="Z9" s="42">
-        <v>224</v>
-      </c>
-      <c r="AA9" s="42">
-        <v>32</v>
-      </c>
-      <c r="AB9" s="42">
-        <v>30</v>
-      </c>
-      <c r="AC9" s="42">
-        <v>27</v>
-      </c>
-      <c r="AE9" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF9" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG9" s="135" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH9" s="123" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI9" s="133">
-        <v>249</v>
-      </c>
-      <c r="AJ9" s="135"/>
-      <c r="AK9" s="135">
-        <v>252</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>214</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="115" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="U10" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="V10" s="50">
-        <v>128</v>
-      </c>
-      <c r="W10" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="X10" s="43">
-        <v>190</v>
-      </c>
-      <c r="Y10" s="42">
-        <v>191</v>
-      </c>
-      <c r="Z10" s="42">
-        <v>192</v>
-      </c>
-      <c r="AA10" s="42">
-        <v>64</v>
-      </c>
-      <c r="AB10" s="42">
-        <v>62</v>
-      </c>
-      <c r="AC10" s="42">
-        <v>48</v>
-      </c>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG10" s="130" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH10" s="124" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI10" s="128">
-        <v>245</v>
-      </c>
-      <c r="AJ10" s="130"/>
-      <c r="AK10" s="130">
-        <v>252</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="U11" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="50">
-        <v>0</v>
-      </c>
-      <c r="W11" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="X11" s="43">
-        <v>126</v>
-      </c>
-      <c r="Y11" s="42">
-        <v>127</v>
-      </c>
-      <c r="Z11" s="42">
-        <v>128</v>
-      </c>
-      <c r="AA11" s="42">
-        <v>128</v>
-      </c>
-      <c r="AB11" s="42">
-        <v>126</v>
-      </c>
-      <c r="AC11" s="42">
-        <v>126</v>
-      </c>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG11" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH11" s="104" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI11" s="134"/>
-      <c r="AJ11" s="136"/>
-      <c r="AK11" s="136"/>
-    </row>
-    <row r="12" spans="1:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="148"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="AE12" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF12" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG12" s="135" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH12" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI12" s="133">
-        <v>253</v>
-      </c>
-      <c r="AJ12" s="135"/>
-      <c r="AK12" s="135">
-        <v>252</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="B13" s="117"/>
-      <c r="D13" s="154" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="155"/>
-      <c r="F13" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="99"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="149"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG13" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH13" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI13" s="128">
-        <v>250</v>
-      </c>
-      <c r="AJ13" s="130"/>
-      <c r="AK13" s="130">
-        <v>252</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="B14" s="117"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="157"/>
-      <c r="H14" s="100" t="s">
-        <v>2</v>
-      </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="151"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="137" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG14" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH14" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI14" s="128">
-        <v>190</v>
-      </c>
-      <c r="AJ14" s="130"/>
-      <c r="AK14" s="130">
-        <v>192</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="B15" s="117"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="159" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="160"/>
-      <c r="J15" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="152"/>
-      <c r="AE15" s="112"/>
-      <c r="AF15" s="54" t="s">
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="107"/>
+      <c r="AJ28" s="107"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="AG15" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH15" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI15" s="134">
-        <v>223</v>
-      </c>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57">
-        <v>224</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
-      <c r="B16" s="117"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="162" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="163"/>
-      <c r="L16" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
-      <c r="S16" s="153"/>
-      <c r="AE16" s="111" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF16" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG16" s="135" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH16" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI16" s="133">
-        <v>254</v>
-      </c>
-      <c r="AJ16" s="135"/>
-      <c r="AK16" s="135">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B17" s="117"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="150" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="150"/>
-      <c r="S17" s="150"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG17" s="130" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH17" s="124" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI17" s="128">
-        <v>246</v>
-      </c>
-      <c r="AJ17" s="130"/>
-      <c r="AK17" s="130">
-        <v>252</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>211</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B18" s="118"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="103"/>
-      <c r="N18" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18" s="103"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG18" s="57" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH18" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI18" s="134">
-        <v>126</v>
-      </c>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57">
-        <v>128</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE19" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF19" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG19" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH19" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI19" s="133">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="106">
-        <v>126</v>
-      </c>
-      <c r="AK19" s="135">
-        <v>128</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE20" s="126" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF20" s="137" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG20" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="128">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="107"/>
-      <c r="AK20" s="130">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE21" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF21" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG21" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="134">
-        <v>3</v>
-      </c>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="57">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE22" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF22" s="56" t="s">
+      <c r="AF29" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG29" s="105"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
+    </row>
+    <row r="30" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD30" s="144"/>
+      <c r="AE30" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="AG22" s="135" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH22" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI22" s="67"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="67"/>
-    </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="137" t="s">
+      <c r="AF30" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG30" s="105"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="99"/>
+      <c r="AJ30" s="99"/>
+    </row>
+    <row r="31" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="AG23" s="130" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="131"/>
-      <c r="AK23" s="131"/>
-    </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG24" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-    </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE25" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="AF25" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG25" s="135" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH25" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI25" s="67"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="67"/>
-    </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG26" s="130" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-    </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG27" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH27" s="66"/>
-      <c r="AI27" s="82"/>
-      <c r="AJ27" s="82"/>
-      <c r="AK27" s="82"/>
-    </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE28" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF28" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG28" s="135" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH28" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-    </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="137" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG29" s="130" t="s">
+      <c r="AF31" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="131"/>
-      <c r="AJ29" s="131"/>
-      <c r="AK29" s="131"/>
-    </row>
-    <row r="30" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="137" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG30" s="130" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="131"/>
-      <c r="AJ30" s="131"/>
-      <c r="AK30" s="131"/>
-    </row>
-    <row r="31" spans="2:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG31" s="57" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="82"/>
-      <c r="AJ31" s="82"/>
-      <c r="AK31" s="82"/>
-    </row>
-    <row r="32" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="128"/>
+    </row>
+    <row r="32" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AJ19:AJ21"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AI22:AK24"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AH2:AH4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AH22:AH24"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AH25:AH27"/>
-    <mergeCell ref="AE28:AE31"/>
-    <mergeCell ref="AH28:AH31"/>
-    <mergeCell ref="AI25:AK27"/>
-    <mergeCell ref="AI28:AK31"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="AE12:AE15"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="J15:S15"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F14:G18"/>
-    <mergeCell ref="H15:I18"/>
-    <mergeCell ref="J16:K18"/>
-    <mergeCell ref="U2:U3"/>
+  <mergeCells count="82">
+    <mergeCell ref="C12:R12"/>
+    <mergeCell ref="E13:R13"/>
+    <mergeCell ref="G14:R14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="D12:S12"/>
-    <mergeCell ref="F13:S13"/>
-    <mergeCell ref="H14:S14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:S2"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="AH19:AH21"/>
-    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="C13:D18"/>
+    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="G15:H18"/>
+    <mergeCell ref="I16:J18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="AD28:AD31"/>
+    <mergeCell ref="AG28:AG31"/>
+    <mergeCell ref="AH25:AJ27"/>
+    <mergeCell ref="AH28:AJ31"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AD12:AD15"/>
+    <mergeCell ref="AD16:AD18"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AD22:AD24"/>
+    <mergeCell ref="AH2:AH3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AI5:AI6"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AE2:AF3"/>
+    <mergeCell ref="AH22:AJ24"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AL5:AL7"/>
+    <mergeCell ref="AL8:AL10"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AR3:AR10"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AM8:AM10"/>
+    <mergeCell ref="AQ8:AQ10"/>
+    <mergeCell ref="AJ19:AJ21"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AZ5:AZ7"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="AU8:AU10"/>
+    <mergeCell ref="AV8:AV10"/>
+    <mergeCell ref="AZ8:AZ10"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AY8:AY9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94CD312-8AEE-C540-8CE0-403CB15EB98D}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" t="s">
+        <v>221</v>
+      </c>
+      <c r="J9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/rcp_phase234_planning.xlsx
+++ b/rcp_phase234_planning.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A5212-568F-D847-A4FA-399414124D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5406951-72B6-3548-A88D-8F74E36C8997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL256IP" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="251">
   <si>
     <t>/24</t>
   </si>
@@ -630,15 +630,6 @@
     <t>R1 Fa1/0</t>
   </si>
   <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
     <t>R2 Fa0/0</t>
   </si>
   <si>
@@ -681,14 +672,6 @@
     <t>LAN A / LAN B</t>
   </si>
   <si>
-    <t>&gt;
-&gt;
-&gt;
-&gt;
-&gt;
-&gt;</t>
-  </si>
-  <si>
     <t>arp -a</t>
   </si>
   <si>
@@ -765,6 +748,58 @@
   </si>
   <si>
     <t>ping 192.168.7.249</t>
+  </si>
+  <si>
+    <t>Arp table</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.250</t>
+  </si>
+  <si>
+    <t>ping 8.8.8.8</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.126</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.246</t>
+  </si>
+  <si>
+    <t>ping 192.168.7.245</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.190</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.222</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.249</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.245</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.250</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.126</t>
+  </si>
+  <si>
+    <t>tracert 192.168.7.246</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Trace
+Route</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Fa0/5</t>
   </si>
 </sst>
 </file>
@@ -800,7 +835,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +935,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC09FE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1439,9 +1480,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,6 +1587,58 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7892,10 +7982,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA9DF8F-8295-3944-9B9F-E4CC6C25A6ED}">
-  <dimension ref="A1:BA36"/>
+  <dimension ref="A1:BH62"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView tabSelected="1" topLeftCell="N29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AT11" sqref="AT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7913,30 +8003,36 @@
     <col min="29" max="29" width="1.6640625" customWidth="1"/>
     <col min="30" max="30" width="10.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="1.6640625" customWidth="1"/>
-    <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="1.6640625" customWidth="1"/>
-    <col min="47" max="47" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="1.6640625" customWidth="1"/>
+    <col min="39" max="39" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="1.6640625" customWidth="1"/>
+    <col min="48" max="48" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.1640625" customWidth="1"/>
+    <col min="51" max="51" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -7966,39 +8062,40 @@
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AJ1" s="31"/>
-      <c r="AT1"/>
-      <c r="AU1"/>
-      <c r="AV1"/>
-      <c r="AW1"/>
-      <c r="AX1"/>
-      <c r="AY1"/>
-      <c r="AZ1"/>
-    </row>
-    <row r="2" spans="1:53" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:60" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="170" t="s">
+      <c r="C2" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
       <c r="S2"/>
-      <c r="T2" s="143" t="s">
+      <c r="T2" s="142" t="s">
         <v>51</v>
       </c>
       <c r="U2" s="71" t="s">
@@ -8016,23 +8113,23 @@
       <c r="Y2" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="143" t="s">
+      <c r="Z2" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="143" t="s">
+      <c r="AA2" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="143" t="s">
+      <c r="AB2" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" s="139" t="s">
+      <c r="AD2" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="AE2" s="139" t="s">
+      <c r="AE2" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139" t="s">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138" t="s">
         <v>48</v>
       </c>
       <c r="AH2" s="137" t="s">
@@ -8044,49 +8141,65 @@
       <c r="AJ2" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="AL2" s="96" t="s">
+      <c r="AL2"/>
+      <c r="AM2" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AM2" s="96" t="s">
+      <c r="AN2" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="AN2" s="96" t="s">
+      <c r="AO2" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="AO2" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP2" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ2" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR2" s="137"/>
+      <c r="AQ2" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR2" s="137" t="s">
+        <v>196</v>
+      </c>
       <c r="AS2" s="137"/>
-      <c r="AT2"/>
-      <c r="AU2" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="AV2" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="AW2" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX2" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY2" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="AZ2" s="137" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA2" s="137"/>
-    </row>
-    <row r="3" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="171"/>
+      <c r="AT2" s="137"/>
+      <c r="AV2" s="191" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW2" s="191"/>
+      <c r="AX2" s="191"/>
+      <c r="AY2" s="192" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" s="192" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA2" s="192" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB2" s="192" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC2" s="192" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD2" s="192" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE2" s="192" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF2" s="192" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG2" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="BH2" s="192" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="170"/>
       <c r="C3" s="76">
         <v>0</v>
       </c>
@@ -8135,7 +8248,7 @@
       <c r="R3" s="80">
         <v>255</v>
       </c>
-      <c r="T3" s="144"/>
+      <c r="T3" s="143"/>
       <c r="U3" s="135" t="s">
         <v>102</v>
       </c>
@@ -8145,63 +8258,59 @@
       <c r="Y3" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="140"/>
-      <c r="AG3" s="140"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="143"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
       <c r="AH3" s="137"/>
       <c r="AI3" s="137"/>
       <c r="AJ3" s="137"/>
-      <c r="AL3" s="122" t="s">
+      <c r="AM3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="AM3" s="122" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN3" s="55" t="s">
-        <v>205</v>
+      <c r="AN3" s="122" t="s">
+        <v>207</v>
       </c>
       <c r="AO3" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP3" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ3" s="135" t="s">
+      <c r="AR3" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AR3" s="138" t="s">
-        <v>211</v>
-      </c>
       <c r="AS3" s="62" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT3" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="AU3" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV3" s="122" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW3" s="55" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX3" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="AY3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ3" s="135" t="s">
-        <v>81</v>
-      </c>
-      <c r="BA3" s="62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV3" s="191" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW3" s="191"/>
+      <c r="AX3" s="191"/>
+      <c r="AY3" s="182" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ3" s="183"/>
+      <c r="BA3" s="183"/>
+      <c r="BB3" s="183"/>
+      <c r="BC3" s="183"/>
+      <c r="BD3" s="183"/>
+      <c r="BE3" s="183"/>
+      <c r="BF3" s="183"/>
+      <c r="BG3" s="183"/>
+      <c r="BH3" s="184"/>
+    </row>
+    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66" t="s">
         <v>6</v>
       </c>
@@ -8246,54 +8355,60 @@
       <c r="AB4" s="68">
         <v>2</v>
       </c>
-      <c r="AD4" s="142"/>
+      <c r="AD4" s="141"/>
       <c r="AE4" s="65" t="s">
         <v>167</v>
       </c>
       <c r="AF4" s="67" t="s">
         <v>168</v>
       </c>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="141" t="s">
+      <c r="AG4" s="141"/>
+      <c r="AH4" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="AI4" s="141"/>
+      <c r="AI4" s="140"/>
       <c r="AJ4" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="AL4" s="106"/>
       <c r="AM4" s="106"/>
-      <c r="AN4" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO4" s="54" t="s">
-        <v>201</v>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="97" t="s">
+        <v>197</v>
       </c>
       <c r="AP4" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="103"/>
-      <c r="AS4" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ4" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT4" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="AX4" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY4" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV4" s="193" t="s">
+        <v>247</v>
+      </c>
+      <c r="AW4" s="191" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX4" s="191"/>
+      <c r="AY4" s="188"/>
+      <c r="AZ4" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA4" s="183"/>
+      <c r="BB4" s="183"/>
+      <c r="BC4" s="183"/>
+      <c r="BD4" s="183"/>
+      <c r="BE4" s="183"/>
+      <c r="BF4" s="183"/>
+      <c r="BG4" s="183"/>
+      <c r="BH4" s="184"/>
+    </row>
+    <row r="5" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="66" t="s">
         <v>6</v>
       </c>
@@ -8359,51 +8474,51 @@
       <c r="AJ5" s="136">
         <v>192</v>
       </c>
-      <c r="AL5" s="122" t="s">
+      <c r="AM5" s="122" t="s">
         <v>82</v>
       </c>
-      <c r="AM5" s="122" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN5" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO5" s="55" t="s">
+      <c r="AN5" s="122" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO5" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP5" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ5" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="AP5" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ5" s="135" t="s">
+      <c r="AR5" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="AR5" s="103"/>
       <c r="AS5" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT5" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AU5" s="122" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV5" s="122" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW5" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX5" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY5" s="135" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ5" s="135" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA5" s="135" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV5" s="193"/>
+      <c r="AW5" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX5" s="191"/>
+      <c r="AY5" s="185" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ5" s="189"/>
+      <c r="BA5" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB5" s="183"/>
+      <c r="BC5" s="183"/>
+      <c r="BD5" s="183"/>
+      <c r="BE5" s="183"/>
+      <c r="BF5" s="183"/>
+      <c r="BG5" s="183"/>
+      <c r="BH5" s="184"/>
+    </row>
+    <row r="6" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="66" t="s">
         <v>6</v>
       </c>
@@ -8463,33 +8578,39 @@
       </c>
       <c r="AI6" s="127"/>
       <c r="AJ6" s="127"/>
-      <c r="AL6" s="105"/>
       <c r="AM6" s="105"/>
-      <c r="AN6" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO6" s="58" t="s">
-        <v>38</v>
+      <c r="AN6" s="105"/>
+      <c r="AO6" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="AP6" s="95" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="AQ6" s="103"/>
       <c r="AR6" s="103"/>
-      <c r="AS6" s="103"/>
-      <c r="AU6" s="105"/>
-      <c r="AV6" s="105"/>
-      <c r="AW6" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX6" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY6" s="103"/>
-      <c r="AZ6" s="103"/>
-      <c r="BA6" s="103"/>
-    </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS6" s="179"/>
+      <c r="AT6" s="103"/>
+      <c r="AV6" s="193"/>
+      <c r="AW6" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX6" s="191"/>
+      <c r="AY6" s="182" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ6" s="183"/>
+      <c r="BA6" s="189"/>
+      <c r="BB6" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC6" s="183"/>
+      <c r="BD6" s="183"/>
+      <c r="BE6" s="183"/>
+      <c r="BF6" s="183"/>
+      <c r="BG6" s="183"/>
+      <c r="BH6" s="184"/>
+    </row>
+    <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="66" t="s">
         <v>6</v>
       </c>
@@ -8509,7 +8630,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35"/>
-      <c r="T7" s="144" t="s">
+      <c r="T7" s="143" t="s">
         <v>61</v>
       </c>
       <c r="U7" s="82">
@@ -8548,44 +8669,50 @@
         <v>193</v>
       </c>
       <c r="AI7" s="136">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AJ7" s="136">
         <v>224</v>
       </c>
-      <c r="AL7" s="106"/>
       <c r="AM7" s="106"/>
-      <c r="AN7" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="AO7" s="54" t="s">
-        <v>202</v>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="97" t="s">
+        <v>197</v>
       </c>
       <c r="AP7" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="AQ7" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AU7" s="106"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="97" t="s">
-        <v>200</v>
-      </c>
-      <c r="AX7" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="AY7" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV7" s="193"/>
+      <c r="AW7" s="191" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX7" s="191"/>
+      <c r="AY7" s="182" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ7" s="183"/>
+      <c r="BA7" s="183"/>
+      <c r="BB7" s="189"/>
+      <c r="BC7" s="183" t="s">
+        <v>214</v>
+      </c>
+      <c r="BD7" s="183"/>
+      <c r="BE7" s="183"/>
+      <c r="BF7" s="183"/>
+      <c r="BG7" s="183"/>
+      <c r="BH7" s="184"/>
+    </row>
+    <row r="8" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="66" t="s">
         <v>4</v>
       </c>
@@ -8605,7 +8732,7 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
-      <c r="T8" s="144"/>
+      <c r="T8" s="143"/>
       <c r="U8" s="83">
         <v>224</v>
       </c>
@@ -8641,51 +8768,51 @@
       </c>
       <c r="AI8" s="127"/>
       <c r="AJ8" s="127"/>
-      <c r="AL8" s="122" t="s">
+      <c r="AM8" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="AM8" s="122" t="s">
+      <c r="AN8" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO8" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP8" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ8" s="135" t="s">
         <v>200</v>
       </c>
-      <c r="AN8" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO8" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP8" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ8" s="135" t="s">
+      <c r="AR8" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="AR8" s="103"/>
       <c r="AS8" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT8" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AU8" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV8" s="122" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW8" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX8" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="AY8" s="135" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ8" s="135" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA8" s="135" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV8" s="193"/>
+      <c r="AW8" s="191" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX8" s="191"/>
+      <c r="AY8" s="182" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ8" s="183"/>
+      <c r="BA8" s="183"/>
+      <c r="BB8" s="183"/>
+      <c r="BC8" s="189"/>
+      <c r="BD8" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="BE8" s="183"/>
+      <c r="BF8" s="183"/>
+      <c r="BG8" s="183"/>
+      <c r="BH8" s="184"/>
+    </row>
+    <row r="9" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="66" t="s">
         <v>3</v>
       </c>
@@ -8732,7 +8859,7 @@
       <c r="AB9" s="68">
         <v>27</v>
       </c>
-      <c r="AD9" s="143" t="s">
+      <c r="AD9" s="142" t="s">
         <v>80</v>
       </c>
       <c r="AE9" s="55" t="s">
@@ -8751,33 +8878,39 @@
       <c r="AJ9" s="136">
         <v>252</v>
       </c>
-      <c r="AL9" s="105"/>
       <c r="AM9" s="105"/>
-      <c r="AN9" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="AO9" s="58" t="s">
-        <v>203</v>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="95" t="s">
+        <v>60</v>
       </c>
       <c r="AP9" s="95" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="AQ9" s="103"/>
       <c r="AR9" s="103"/>
-      <c r="AS9" s="103"/>
-      <c r="AU9" s="105"/>
-      <c r="AV9" s="105"/>
-      <c r="AW9" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="AX9" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="AY9" s="103"/>
-      <c r="AZ9" s="103"/>
-      <c r="BA9" s="103"/>
-    </row>
-    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AS9" s="179"/>
+      <c r="AT9" s="103"/>
+      <c r="AV9" s="193"/>
+      <c r="AW9" s="191" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX9" s="191"/>
+      <c r="AY9" s="182" t="s">
+        <v>219</v>
+      </c>
+      <c r="AZ9" s="183"/>
+      <c r="BA9" s="183"/>
+      <c r="BB9" s="183"/>
+      <c r="BC9" s="183"/>
+      <c r="BD9" s="189"/>
+      <c r="BE9" s="183" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF9" s="183"/>
+      <c r="BG9" s="183"/>
+      <c r="BH9" s="184"/>
+    </row>
+    <row r="10" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="66" t="s">
         <v>2</v>
       </c>
@@ -8824,7 +8957,7 @@
       <c r="AB10" s="41">
         <v>48</v>
       </c>
-      <c r="AD10" s="144"/>
+      <c r="AD10" s="143"/>
       <c r="AE10" s="58" t="s">
         <v>175</v>
       </c>
@@ -8839,39 +8972,45 @@
       </c>
       <c r="AI10" s="60"/>
       <c r="AJ10" s="126"/>
-      <c r="AL10" s="106"/>
       <c r="AM10" s="106"/>
-      <c r="AN10" s="54" t="s">
-        <v>205</v>
-      </c>
+      <c r="AN10" s="106"/>
       <c r="AO10" s="54" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="AP10" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="AQ10" s="104"/>
+        <v>202</v>
+      </c>
+      <c r="AQ10" s="54" t="s">
+        <v>201</v>
+      </c>
       <c r="AR10" s="104"/>
       <c r="AS10" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX10" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="AY10" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="AZ10" s="104"/>
-      <c r="BA10" s="53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV10" s="193"/>
+      <c r="AW10" s="191" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX10" s="191"/>
+      <c r="AY10" s="182" t="s">
+        <v>220</v>
+      </c>
+      <c r="AZ10" s="183"/>
+      <c r="BA10" s="183"/>
+      <c r="BB10" s="183"/>
+      <c r="BC10" s="183"/>
+      <c r="BD10" s="183"/>
+      <c r="BE10" s="189"/>
+      <c r="BF10" s="183" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG10" s="183"/>
+      <c r="BH10" s="184"/>
+    </row>
+    <row r="11" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="66" t="s">
         <v>1</v>
       </c>
@@ -8918,7 +9057,7 @@
       <c r="AB11" s="61">
         <v>126</v>
       </c>
-      <c r="AD11" s="145"/>
+      <c r="AD11" s="144"/>
       <c r="AE11" s="54" t="s">
         <v>112</v>
       </c>
@@ -8931,30 +9070,51 @@
       <c r="AH11" s="73"/>
       <c r="AI11" s="74"/>
       <c r="AJ11" s="74"/>
-    </row>
-    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="172" t="s">
+      <c r="AV11" s="193"/>
+      <c r="AW11" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX11" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY11" s="182" t="s">
+        <v>236</v>
+      </c>
+      <c r="AZ11" s="183"/>
+      <c r="BA11" s="183"/>
+      <c r="BB11" s="183"/>
+      <c r="BC11" s="183"/>
+      <c r="BD11" s="183"/>
+      <c r="BE11" s="183"/>
+      <c r="BF11" s="189"/>
+      <c r="BG11" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="BH11" s="184"/>
+    </row>
+    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="163" t="s">
+      <c r="C12" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="AD12" s="143" t="s">
+      <c r="D12" s="162"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="163"/>
+      <c r="O12" s="163"/>
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+      <c r="AD12" s="142" t="s">
         <v>81</v>
       </c>
       <c r="AE12" s="55" t="s">
@@ -8973,30 +9133,49 @@
       <c r="AJ12" s="136">
         <v>252</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B13" s="173"/>
-      <c r="C13" s="152" t="s">
+      <c r="AV12" s="193"/>
+      <c r="AW12" s="193"/>
+      <c r="AX12" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY12" s="182" t="s">
+        <v>239</v>
+      </c>
+      <c r="AZ12" s="183"/>
+      <c r="BA12" s="183"/>
+      <c r="BB12" s="183"/>
+      <c r="BC12" s="183"/>
+      <c r="BD12" s="183"/>
+      <c r="BE12" s="183"/>
+      <c r="BF12" s="189"/>
+      <c r="BG12" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH12" s="184"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B13" s="172"/>
+      <c r="C13" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="153"/>
-      <c r="E13" s="165" t="s">
+      <c r="D13" s="152"/>
+      <c r="E13" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="165"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="166"/>
-      <c r="P13" s="166"/>
-      <c r="Q13" s="166"/>
-      <c r="R13" s="167"/>
-      <c r="AD13" s="144"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="165"/>
+      <c r="O13" s="165"/>
+      <c r="P13" s="165"/>
+      <c r="Q13" s="165"/>
+      <c r="R13" s="166"/>
+      <c r="AD13" s="143"/>
       <c r="AE13" s="58" t="s">
         <v>174</v>
       </c>
@@ -9011,30 +9190,49 @@
       </c>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="126"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B14" s="173"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="154" t="s">
+      <c r="AV13" s="193"/>
+      <c r="AW13" s="193"/>
+      <c r="AX13" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY13" s="182" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ13" s="183"/>
+      <c r="BA13" s="183"/>
+      <c r="BB13" s="183"/>
+      <c r="BC13" s="183"/>
+      <c r="BD13" s="183"/>
+      <c r="BE13" s="183"/>
+      <c r="BF13" s="189"/>
+      <c r="BG13" s="183" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH13" s="184"/>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B14" s="172"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="168" t="s">
+      <c r="F14" s="154"/>
+      <c r="G14" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="169"/>
-      <c r="AD14" s="144"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="168"/>
+      <c r="AD14" s="143"/>
       <c r="AE14" s="58" t="s">
         <v>112</v>
       </c>
@@ -9051,30 +9249,51 @@
       <c r="AJ14" s="60">
         <v>192</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B15" s="173"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="157" t="s">
+      <c r="AV14" s="193"/>
+      <c r="AW14" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX14" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY14" s="182" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ14" s="183"/>
+      <c r="BA14" s="183"/>
+      <c r="BB14" s="183"/>
+      <c r="BC14" s="183"/>
+      <c r="BD14" s="183"/>
+      <c r="BE14" s="183"/>
+      <c r="BF14" s="183"/>
+      <c r="BG14" s="189"/>
+      <c r="BH14" s="187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B15" s="172"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="158"/>
-      <c r="I15" s="148" t="s">
+      <c r="H15" s="157"/>
+      <c r="I15" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="148"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="148"/>
-      <c r="P15" s="148"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="149"/>
-      <c r="AD15" s="145"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="148"/>
+      <c r="AD15" s="144"/>
       <c r="AE15" s="54" t="s">
         <v>176</v>
       </c>
@@ -9091,30 +9310,49 @@
       <c r="AJ15" s="56">
         <v>224</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="B16" s="173"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="160" t="s">
+      <c r="AV15" s="193"/>
+      <c r="AW15" s="193"/>
+      <c r="AX15" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY15" s="182" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ15" s="183"/>
+      <c r="BA15" s="183"/>
+      <c r="BB15" s="183"/>
+      <c r="BC15" s="183"/>
+      <c r="BD15" s="183"/>
+      <c r="BE15" s="183"/>
+      <c r="BF15" s="183"/>
+      <c r="BG15" s="189"/>
+      <c r="BH15" s="187" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="B16" s="172"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="161"/>
-      <c r="K16" s="150" t="s">
+      <c r="J16" s="160"/>
+      <c r="K16" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="150"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="151"/>
-      <c r="AD16" s="143" t="s">
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="150"/>
+      <c r="AD16" s="142" t="s">
         <v>82</v>
       </c>
       <c r="AE16" s="55" t="s">
@@ -9133,30 +9371,49 @@
       <c r="AJ16" s="136">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B17" s="173"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="147" t="s">
+      <c r="AV16" s="193"/>
+      <c r="AW16" s="193"/>
+      <c r="AX16" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY16" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ16" s="183"/>
+      <c r="BA16" s="183"/>
+      <c r="BB16" s="183"/>
+      <c r="BC16" s="183"/>
+      <c r="BD16" s="183"/>
+      <c r="BE16" s="183"/>
+      <c r="BF16" s="183"/>
+      <c r="BG16" s="189"/>
+      <c r="BH16" s="187" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B17" s="172"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="158"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="161"/>
+      <c r="J17" s="161"/>
+      <c r="K17" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147" t="s">
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="AD17" s="144"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="146"/>
+      <c r="AD17" s="143"/>
       <c r="AE17" s="58" t="s">
         <v>175</v>
       </c>
@@ -9171,34 +9428,53 @@
       </c>
       <c r="AI17" s="60"/>
       <c r="AJ17" s="126"/>
-    </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B18" s="174"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="146" t="s">
+      <c r="AV17" s="193"/>
+      <c r="AW17" s="193"/>
+      <c r="AX17" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY17" s="182" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ17" s="183"/>
+      <c r="BA17" s="183"/>
+      <c r="BB17" s="183"/>
+      <c r="BC17" s="183"/>
+      <c r="BD17" s="183"/>
+      <c r="BE17" s="183"/>
+      <c r="BF17" s="183"/>
+      <c r="BG17" s="189"/>
+      <c r="BH17" s="187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="B18" s="173"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146" t="s">
+      <c r="L18" s="145"/>
+      <c r="M18" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146" t="s">
+      <c r="N18" s="145"/>
+      <c r="O18" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146" t="s">
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="R18" s="146"/>
-      <c r="AD18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="AD18" s="144"/>
       <c r="AE18" s="54" t="s">
         <v>112</v>
       </c>
@@ -9215,10 +9491,31 @@
       <c r="AJ18" s="56">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AV18" s="193"/>
+      <c r="AW18" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX18" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY18" s="182" t="s">
+        <v>237</v>
+      </c>
+      <c r="AZ18" s="183"/>
+      <c r="BA18" s="183"/>
+      <c r="BB18" s="183"/>
+      <c r="BC18" s="183"/>
+      <c r="BD18" s="183"/>
+      <c r="BE18" s="183"/>
+      <c r="BF18" s="183"/>
+      <c r="BG18" s="186" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH18" s="190"/>
+    </row>
+    <row r="19" spans="2:60" x14ac:dyDescent="0.2">
       <c r="AD19" s="71" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="AE19" s="55" t="s">
         <v>173</v>
@@ -9238,10 +9535,29 @@
       <c r="AJ19" s="136">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV19" s="193"/>
+      <c r="AW19" s="193"/>
+      <c r="AX19" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY19" s="182" t="s">
+        <v>238</v>
+      </c>
+      <c r="AZ19" s="183"/>
+      <c r="BA19" s="183"/>
+      <c r="BB19" s="183"/>
+      <c r="BC19" s="183"/>
+      <c r="BD19" s="183"/>
+      <c r="BE19" s="183"/>
+      <c r="BF19" s="183"/>
+      <c r="BG19" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH19" s="190"/>
+    </row>
+    <row r="20" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD20" s="70" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AE20" s="58" t="s">
         <v>173</v>
@@ -9255,10 +9571,29 @@
       </c>
       <c r="AI20" s="126"/>
       <c r="AJ20" s="126"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AV20" s="193"/>
+      <c r="AW20" s="193"/>
+      <c r="AX20" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY20" s="182" t="s">
+        <v>217</v>
+      </c>
+      <c r="AZ20" s="183"/>
+      <c r="BA20" s="183"/>
+      <c r="BB20" s="183"/>
+      <c r="BC20" s="183"/>
+      <c r="BD20" s="183"/>
+      <c r="BE20" s="183"/>
+      <c r="BF20" s="183"/>
+      <c r="BG20" s="186" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH20" s="190"/>
+    </row>
+    <row r="21" spans="2:60" x14ac:dyDescent="0.2">
       <c r="AD21" s="69" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="AE21" s="54" t="s">
         <v>173</v>
@@ -9272,9 +9607,26 @@
       </c>
       <c r="AI21" s="127"/>
       <c r="AJ21" s="127"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD22" s="143" t="s">
+      <c r="AV21" s="191" t="s">
+        <v>234</v>
+      </c>
+      <c r="AW21" s="191"/>
+      <c r="AX21" s="191"/>
+      <c r="AY21" s="182" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ21" s="183"/>
+      <c r="BA21" s="183"/>
+      <c r="BB21" s="183"/>
+      <c r="BC21" s="183"/>
+      <c r="BD21" s="183"/>
+      <c r="BE21" s="183"/>
+      <c r="BF21" s="183"/>
+      <c r="BG21" s="183"/>
+      <c r="BH21" s="184"/>
+    </row>
+    <row r="22" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD22" s="142" t="s">
         <v>98</v>
       </c>
       <c r="AE22" s="55" t="s">
@@ -9289,9 +9641,28 @@
       <c r="AH22" s="107"/>
       <c r="AI22" s="107"/>
       <c r="AJ22" s="107"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD23" s="144"/>
+      <c r="AV22" s="195" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW22" s="191" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX22" s="191"/>
+      <c r="AY22" s="188"/>
+      <c r="AZ22" s="183" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA22" s="183"/>
+      <c r="BB22" s="183"/>
+      <c r="BC22" s="183"/>
+      <c r="BD22" s="183"/>
+      <c r="BE22" s="183"/>
+      <c r="BF22" s="183"/>
+      <c r="BG22" s="183"/>
+      <c r="BH22" s="184"/>
+    </row>
+    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD23" s="143"/>
       <c r="AE23" s="58" t="s">
         <v>178</v>
       </c>
@@ -9302,9 +9673,28 @@
       <c r="AH23" s="99"/>
       <c r="AI23" s="99"/>
       <c r="AJ23" s="99"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD24" s="145"/>
+      <c r="AV23" s="193"/>
+      <c r="AW23" s="191" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX23" s="191"/>
+      <c r="AY23" s="185" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ23" s="189"/>
+      <c r="BA23" s="183" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB23" s="183"/>
+      <c r="BC23" s="183"/>
+      <c r="BD23" s="183"/>
+      <c r="BE23" s="183"/>
+      <c r="BF23" s="183"/>
+      <c r="BG23" s="183"/>
+      <c r="BH23" s="184"/>
+    </row>
+    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD24" s="144"/>
       <c r="AE24" s="54" t="s">
         <v>179</v>
       </c>
@@ -9315,9 +9705,28 @@
       <c r="AH24" s="128"/>
       <c r="AI24" s="128"/>
       <c r="AJ24" s="128"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD25" s="143" t="s">
+      <c r="AV24" s="193"/>
+      <c r="AW24" s="191" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX24" s="191"/>
+      <c r="AY24" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="AZ24" s="183"/>
+      <c r="BA24" s="189"/>
+      <c r="BB24" s="183" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC24" s="183"/>
+      <c r="BD24" s="183"/>
+      <c r="BE24" s="183"/>
+      <c r="BF24" s="183"/>
+      <c r="BG24" s="183"/>
+      <c r="BH24" s="184"/>
+    </row>
+    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD25" s="142" t="s">
         <v>99</v>
       </c>
       <c r="AE25" s="55" t="s">
@@ -9332,9 +9741,28 @@
       <c r="AH25" s="107"/>
       <c r="AI25" s="107"/>
       <c r="AJ25" s="107"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD26" s="144"/>
+      <c r="AV25" s="193"/>
+      <c r="AW25" s="191" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX25" s="191"/>
+      <c r="AY25" s="182" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ25" s="183"/>
+      <c r="BA25" s="183"/>
+      <c r="BB25" s="189"/>
+      <c r="BC25" s="183" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD25" s="183"/>
+      <c r="BE25" s="183"/>
+      <c r="BF25" s="183"/>
+      <c r="BG25" s="183"/>
+      <c r="BH25" s="184"/>
+    </row>
+    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD26" s="143"/>
       <c r="AE26" s="58" t="s">
         <v>178</v>
       </c>
@@ -9345,9 +9773,28 @@
       <c r="AH26" s="99"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="99"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD27" s="145"/>
+      <c r="AV26" s="193"/>
+      <c r="AW26" s="191" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX26" s="191"/>
+      <c r="AY26" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="AZ26" s="183"/>
+      <c r="BA26" s="183"/>
+      <c r="BB26" s="183"/>
+      <c r="BC26" s="189"/>
+      <c r="BD26" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE26" s="183"/>
+      <c r="BF26" s="183"/>
+      <c r="BG26" s="183"/>
+      <c r="BH26" s="184"/>
+    </row>
+    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD27" s="144"/>
       <c r="AE27" s="54" t="s">
         <v>179</v>
       </c>
@@ -9358,16 +9805,35 @@
       <c r="AH27" s="128"/>
       <c r="AI27" s="128"/>
       <c r="AJ27" s="128"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD28" s="143" t="s">
+      <c r="AV27" s="193"/>
+      <c r="AW27" s="191" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX27" s="191"/>
+      <c r="AY27" s="182" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ27" s="183"/>
+      <c r="BA27" s="183"/>
+      <c r="BB27" s="183"/>
+      <c r="BC27" s="183"/>
+      <c r="BD27" s="189"/>
+      <c r="BE27" s="183" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF27" s="183"/>
+      <c r="BG27" s="183"/>
+      <c r="BH27" s="184"/>
+    </row>
+    <row r="28" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD28" s="142" t="s">
         <v>101</v>
       </c>
       <c r="AE28" s="55" t="s">
         <v>177</v>
       </c>
       <c r="AF28" s="63" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AG28" s="122" t="s">
         <v>88</v>
@@ -9375,53 +9841,874 @@
       <c r="AH28" s="107"/>
       <c r="AI28" s="107"/>
       <c r="AJ28" s="107"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AD29" s="144"/>
+      <c r="AV28" s="193"/>
+      <c r="AW28" s="191" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX28" s="191"/>
+      <c r="AY28" s="182" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ28" s="183"/>
+      <c r="BA28" s="183"/>
+      <c r="BB28" s="183"/>
+      <c r="BC28" s="183"/>
+      <c r="BD28" s="183"/>
+      <c r="BE28" s="189"/>
+      <c r="BF28" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="BG28" s="183"/>
+      <c r="BH28" s="184"/>
+    </row>
+    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="AD29" s="143"/>
       <c r="AE29" s="58" t="s">
         <v>178</v>
       </c>
       <c r="AF29" s="60" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AG29" s="105"/>
       <c r="AH29" s="99"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="99"/>
-    </row>
-    <row r="30" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AD30" s="144"/>
+      <c r="AV29" s="193"/>
+      <c r="AW29" s="193" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX29" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY29" s="182" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ29" s="183"/>
+      <c r="BA29" s="183"/>
+      <c r="BB29" s="183"/>
+      <c r="BC29" s="183"/>
+      <c r="BD29" s="183"/>
+      <c r="BE29" s="183"/>
+      <c r="BF29" s="189"/>
+      <c r="BG29" s="183" t="s">
+        <v>225</v>
+      </c>
+      <c r="BH29" s="184"/>
+    </row>
+    <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD30" s="143"/>
       <c r="AE30" s="58" t="s">
         <v>179</v>
       </c>
       <c r="AF30" s="60" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="AG30" s="105"/>
       <c r="AH30" s="99"/>
       <c r="AI30" s="99"/>
       <c r="AJ30" s="99"/>
-    </row>
-    <row r="31" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AD31" s="145"/>
+      <c r="AV30" s="193"/>
+      <c r="AW30" s="193"/>
+      <c r="AX30" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="AY30" s="182" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ30" s="183"/>
+      <c r="BA30" s="183"/>
+      <c r="BB30" s="183"/>
+      <c r="BC30" s="183"/>
+      <c r="BD30" s="183"/>
+      <c r="BE30" s="183"/>
+      <c r="BF30" s="189"/>
+      <c r="BG30" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="BH30" s="184"/>
+    </row>
+    <row r="31" spans="2:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD31" s="144"/>
       <c r="AE31" s="54" t="s">
         <v>180</v>
       </c>
       <c r="AF31" s="56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG31" s="106"/>
       <c r="AH31" s="128"/>
       <c r="AI31" s="128"/>
       <c r="AJ31" s="128"/>
-    </row>
-    <row r="32" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="AV31" s="193"/>
+      <c r="AW31" s="193"/>
+      <c r="AX31" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY31" s="182" t="s">
+        <v>242</v>
+      </c>
+      <c r="AZ31" s="183"/>
+      <c r="BA31" s="183"/>
+      <c r="BB31" s="183"/>
+      <c r="BC31" s="183"/>
+      <c r="BD31" s="183"/>
+      <c r="BE31" s="183"/>
+      <c r="BF31" s="189"/>
+      <c r="BG31" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH31" s="184"/>
+    </row>
+    <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV32" s="193"/>
+      <c r="AW32" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX32" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY32" s="182" t="s">
+        <v>240</v>
+      </c>
+      <c r="AZ32" s="183"/>
+      <c r="BA32" s="183"/>
+      <c r="BB32" s="183"/>
+      <c r="BC32" s="183"/>
+      <c r="BD32" s="183"/>
+      <c r="BE32" s="183"/>
+      <c r="BF32" s="183"/>
+      <c r="BG32" s="189"/>
+      <c r="BH32" s="187" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD33" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE33" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF33" s="138"/>
+      <c r="AG33" s="138" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI33" s="137" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ33" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV33" s="193"/>
+      <c r="AW33" s="193"/>
+      <c r="AX33" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY33" s="182" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ33" s="183"/>
+      <c r="BA33" s="183"/>
+      <c r="BB33" s="183"/>
+      <c r="BC33" s="183"/>
+      <c r="BD33" s="183"/>
+      <c r="BE33" s="183"/>
+      <c r="BF33" s="183"/>
+      <c r="BG33" s="189"/>
+      <c r="BH33" s="187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD34" s="139"/>
+      <c r="AE34" s="139"/>
+      <c r="AF34" s="139"/>
+      <c r="AG34" s="139"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="137"/>
+      <c r="AV34" s="193"/>
+      <c r="AW34" s="193"/>
+      <c r="AX34" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY34" s="182" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ34" s="183"/>
+      <c r="BA34" s="183"/>
+      <c r="BB34" s="183"/>
+      <c r="BC34" s="183"/>
+      <c r="BD34" s="183"/>
+      <c r="BE34" s="183"/>
+      <c r="BF34" s="183"/>
+      <c r="BG34" s="189"/>
+      <c r="BH34" s="187" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="141"/>
+      <c r="AE35" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF35" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG35" s="141"/>
+      <c r="AH35" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI35" s="140"/>
+      <c r="AJ35" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV35" s="193"/>
+      <c r="AW35" s="193"/>
+      <c r="AX35" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY35" s="182" t="s">
+        <v>244</v>
+      </c>
+      <c r="AZ35" s="183"/>
+      <c r="BA35" s="183"/>
+      <c r="BB35" s="183"/>
+      <c r="BC35" s="183"/>
+      <c r="BD35" s="183"/>
+      <c r="BE35" s="183"/>
+      <c r="BF35" s="183"/>
+      <c r="BG35" s="189"/>
+      <c r="BH35" s="187" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE36" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF36" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG36" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH36" s="72">
+        <v>129</v>
+      </c>
+      <c r="AI36" s="136">
+        <v>190</v>
+      </c>
+      <c r="AJ36" s="136">
+        <v>192</v>
+      </c>
+      <c r="AV36" s="193"/>
+      <c r="AW36" s="193" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX36" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY36" s="182" t="s">
+        <v>245</v>
+      </c>
+      <c r="AZ36" s="183"/>
+      <c r="BA36" s="183"/>
+      <c r="BB36" s="183"/>
+      <c r="BC36" s="183"/>
+      <c r="BD36" s="183"/>
+      <c r="BE36" s="183"/>
+      <c r="BF36" s="183"/>
+      <c r="BG36" s="186" t="s">
+        <v>245</v>
+      </c>
+      <c r="BH36" s="190"/>
+    </row>
+    <row r="37" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD37" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE37" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF37" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG37" s="106"/>
+      <c r="AH37" s="73">
+        <v>130</v>
+      </c>
+      <c r="AI37" s="127"/>
+      <c r="AJ37" s="127"/>
+      <c r="AV37" s="193"/>
+      <c r="AW37" s="193"/>
+      <c r="AX37" s="194" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY37" s="182" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ37" s="183"/>
+      <c r="BA37" s="183"/>
+      <c r="BB37" s="183"/>
+      <c r="BC37" s="183"/>
+      <c r="BD37" s="183"/>
+      <c r="BE37" s="183"/>
+      <c r="BF37" s="183"/>
+      <c r="BG37" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH37" s="190"/>
+    </row>
+    <row r="38" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD38" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE38" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF38" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG38" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH38" s="72">
+        <v>193</v>
+      </c>
+      <c r="AI38" s="136">
+        <v>222</v>
+      </c>
+      <c r="AJ38" s="136">
+        <v>224</v>
+      </c>
+      <c r="AV38" s="193"/>
+      <c r="AW38" s="193"/>
+      <c r="AX38" s="194" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY38" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ38" s="183"/>
+      <c r="BA38" s="183"/>
+      <c r="BB38" s="183"/>
+      <c r="BC38" s="183"/>
+      <c r="BD38" s="183"/>
+      <c r="BE38" s="183"/>
+      <c r="BF38" s="183"/>
+      <c r="BG38" s="186" t="s">
+        <v>221</v>
+      </c>
+      <c r="BH38" s="190"/>
+    </row>
+    <row r="39" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD39" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE39" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF39" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG39" s="106"/>
+      <c r="AH39" s="73">
+        <v>194</v>
+      </c>
+      <c r="AI39" s="127"/>
+      <c r="AJ39" s="127"/>
+    </row>
+    <row r="40" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD40" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE40" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF40" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG40" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH40" s="72"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="68"/>
+    </row>
+    <row r="41" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF41" s="177" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG41" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH41" s="72">
+        <v>245</v>
+      </c>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="136">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD42" s="144"/>
+      <c r="AE42" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF42" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG42" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH42" s="73">
+        <v>249</v>
+      </c>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="127"/>
+    </row>
+    <row r="43" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD43" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE43" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF43" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG43" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH43" s="72">
+        <v>190</v>
+      </c>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="68">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD44" s="143"/>
+      <c r="AE44" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF44" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG44" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH44">
+        <v>222</v>
+      </c>
+      <c r="AI44" s="60"/>
+      <c r="AJ44" s="41">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="45" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD45" s="143"/>
+      <c r="AE45" s="176" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF45" s="177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG45" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH45" s="72">
+        <v>253</v>
+      </c>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="136">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD46" s="144"/>
+      <c r="AE46" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF46" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG46" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH46" s="73">
+        <v>250</v>
+      </c>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="127"/>
+    </row>
+    <row r="47" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD47" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE47" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF47" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG47" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH47" s="72">
+        <v>126</v>
+      </c>
+      <c r="AI47" s="63"/>
+      <c r="AJ47" s="68">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="30:60" x14ac:dyDescent="0.2">
+      <c r="AD48" s="143"/>
+      <c r="AE48" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF48" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG48" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH48" s="72">
+        <v>246</v>
+      </c>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="136">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD49" s="144"/>
+      <c r="AE49" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF49" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG49" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH49" s="73">
+        <v>254</v>
+      </c>
+      <c r="AI49" s="56"/>
+      <c r="AJ49" s="127"/>
+    </row>
+    <row r="50" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD50" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE50" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF50" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG50" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH50" s="72">
+        <v>3</v>
+      </c>
+      <c r="AI50" s="136">
+        <v>126</v>
+      </c>
+      <c r="AJ50" s="136">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD51" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="AE51" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF51" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG51" s="181"/>
+      <c r="AH51">
+        <v>2</v>
+      </c>
+      <c r="AI51" s="180"/>
+      <c r="AJ51" s="180"/>
+    </row>
+    <row r="52" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD52" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE52" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF52" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG52" s="106"/>
+      <c r="AH52" s="73">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="127"/>
+      <c r="AJ52" s="127"/>
+    </row>
+    <row r="53" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD53" s="142" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE53" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF53" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG53" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH53" s="107"/>
+      <c r="AI53" s="107"/>
+      <c r="AJ53" s="107"/>
+    </row>
+    <row r="54" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD54" s="143"/>
+      <c r="AE54" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF54" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG54" s="105"/>
+      <c r="AH54" s="99"/>
+      <c r="AI54" s="99"/>
+      <c r="AJ54" s="99"/>
+    </row>
+    <row r="55" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD55" s="144"/>
+      <c r="AE55" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF55" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG55" s="106"/>
+      <c r="AH55" s="128"/>
+      <c r="AI55" s="128"/>
+      <c r="AJ55" s="128"/>
+    </row>
+    <row r="56" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD56" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE56" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF56" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG56" s="122" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH56" s="107"/>
+      <c r="AI56" s="107"/>
+      <c r="AJ56" s="107"/>
+    </row>
+    <row r="57" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD57" s="143"/>
+      <c r="AE57" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF57" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG57" s="105"/>
+      <c r="AH57" s="99"/>
+      <c r="AI57" s="99"/>
+      <c r="AJ57" s="99"/>
+    </row>
+    <row r="58" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD58" s="144"/>
+      <c r="AE58" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF58" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG58" s="106"/>
+      <c r="AH58" s="128"/>
+      <c r="AI58" s="128"/>
+      <c r="AJ58" s="128"/>
+    </row>
+    <row r="59" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD59" s="142" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE59" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF59" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG59" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH59" s="107"/>
+      <c r="AI59" s="107"/>
+      <c r="AJ59" s="107"/>
+    </row>
+    <row r="60" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD60" s="143"/>
+      <c r="AE60" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF60" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG60" s="105"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
+    </row>
+    <row r="61" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD61" s="143"/>
+      <c r="AE61" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF61" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG61" s="105"/>
+      <c r="AH61" s="99"/>
+      <c r="AI61" s="99"/>
+      <c r="AJ61" s="99"/>
+    </row>
+    <row r="62" spans="30:36" x14ac:dyDescent="0.2">
+      <c r="AD62" s="144"/>
+      <c r="AE62" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF62" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG62" s="106"/>
+      <c r="AH62" s="128"/>
+      <c r="AI62" s="128"/>
+      <c r="AJ62" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="179">
+    <mergeCell ref="AY35:BF35"/>
+    <mergeCell ref="AY36:BF36"/>
+    <mergeCell ref="AY37:BF37"/>
+    <mergeCell ref="AY38:BF38"/>
+    <mergeCell ref="AY31:BE31"/>
+    <mergeCell ref="BG31:BH31"/>
+    <mergeCell ref="AY32:BF32"/>
+    <mergeCell ref="AY33:BF33"/>
+    <mergeCell ref="AY34:BF34"/>
+    <mergeCell ref="AY28:BD28"/>
+    <mergeCell ref="BF28:BH28"/>
+    <mergeCell ref="AY29:BE29"/>
+    <mergeCell ref="BG29:BH29"/>
+    <mergeCell ref="AY30:BE30"/>
+    <mergeCell ref="BG30:BH30"/>
+    <mergeCell ref="AY25:BA25"/>
+    <mergeCell ref="BC25:BH25"/>
+    <mergeCell ref="AY26:BB26"/>
+    <mergeCell ref="BD26:BH26"/>
+    <mergeCell ref="AY27:BC27"/>
+    <mergeCell ref="BE27:BH27"/>
+    <mergeCell ref="AY21:BH21"/>
+    <mergeCell ref="AZ22:BH22"/>
+    <mergeCell ref="BA23:BH23"/>
+    <mergeCell ref="AY24:AZ24"/>
+    <mergeCell ref="BB24:BH24"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="BG13:BH13"/>
+    <mergeCell ref="BC7:BH7"/>
+    <mergeCell ref="BD8:BH8"/>
+    <mergeCell ref="BE9:BH9"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="AY16:BF16"/>
+    <mergeCell ref="AY17:BF17"/>
+    <mergeCell ref="AY18:BF18"/>
+    <mergeCell ref="AY19:BF19"/>
+    <mergeCell ref="AY20:BF20"/>
+    <mergeCell ref="AY15:BF15"/>
+    <mergeCell ref="AY11:BE11"/>
+    <mergeCell ref="AY12:BE12"/>
+    <mergeCell ref="AY13:BE13"/>
+    <mergeCell ref="AY14:BF14"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AY7:BA7"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="AY9:BC9"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="AW36:AW38"/>
+    <mergeCell ref="AW22:AX22"/>
+    <mergeCell ref="AW23:AX23"/>
+    <mergeCell ref="AW24:AX24"/>
+    <mergeCell ref="AW25:AX25"/>
+    <mergeCell ref="AW26:AX26"/>
+    <mergeCell ref="AW27:AX27"/>
+    <mergeCell ref="AW28:AX28"/>
+    <mergeCell ref="AW11:AW13"/>
+    <mergeCell ref="AW14:AW17"/>
+    <mergeCell ref="AW18:AW20"/>
+    <mergeCell ref="AW29:AW31"/>
+    <mergeCell ref="AW32:AW35"/>
+    <mergeCell ref="AV21:AX21"/>
+    <mergeCell ref="AD59:AD62"/>
+    <mergeCell ref="AG59:AG62"/>
+    <mergeCell ref="AH59:AJ62"/>
+    <mergeCell ref="AJ41:AJ42"/>
+    <mergeCell ref="AJ45:AJ46"/>
+    <mergeCell ref="AJ48:AJ49"/>
+    <mergeCell ref="AD53:AD55"/>
+    <mergeCell ref="AG53:AG55"/>
+    <mergeCell ref="AH53:AJ55"/>
+    <mergeCell ref="AD56:AD58"/>
+    <mergeCell ref="AG56:AG58"/>
+    <mergeCell ref="AH56:AJ58"/>
+    <mergeCell ref="AD47:AD49"/>
+    <mergeCell ref="AG50:AG52"/>
+    <mergeCell ref="AI50:AI52"/>
+    <mergeCell ref="AJ50:AJ52"/>
+    <mergeCell ref="AJ38:AJ39"/>
+    <mergeCell ref="AD40:AD42"/>
+    <mergeCell ref="AD43:AD46"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AV4:AV20"/>
+    <mergeCell ref="AV22:AV38"/>
+    <mergeCell ref="AD33:AD35"/>
+    <mergeCell ref="AE33:AF34"/>
+    <mergeCell ref="AG33:AG35"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AI38:AI39"/>
     <mergeCell ref="C12:R12"/>
     <mergeCell ref="E13:R13"/>
     <mergeCell ref="G14:R14"/>
@@ -9472,38 +10759,38 @@
     <mergeCell ref="AH22:AJ24"/>
     <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="AG2:AG4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AL8:AL10"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="AU5:AU7"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AM5:AM7"/>
+    <mergeCell ref="AW4:AX4"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AW7:AX7"/>
+    <mergeCell ref="AW8:AX8"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AW10:AX10"/>
+    <mergeCell ref="AY3:BH3"/>
+    <mergeCell ref="AZ4:BH4"/>
+    <mergeCell ref="BA5:BH5"/>
+    <mergeCell ref="BB6:BH6"/>
+    <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AR3:AR10"/>
-    <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AN3:AN4"/>
     <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AM8:AM10"/>
-    <mergeCell ref="AQ8:AQ10"/>
     <mergeCell ref="AJ19:AJ21"/>
     <mergeCell ref="AJ9:AJ10"/>
     <mergeCell ref="AJ12:AJ13"/>
     <mergeCell ref="AJ16:AJ17"/>
     <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AV5:AV7"/>
-    <mergeCell ref="AZ5:AZ7"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="AU8:AU10"/>
-    <mergeCell ref="AV8:AV10"/>
-    <mergeCell ref="AZ8:AZ10"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AN5:AN7"/>
+    <mergeCell ref="AR5:AR7"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AM8:AM10"/>
+    <mergeCell ref="AN8:AN10"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AQ8:AQ9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9511,512 +10798,553 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94CD312-8AEE-C540-8CE0-403CB15EB98D}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="174" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="174" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="174"/>
+      <c r="E3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="126"/>
+      <c r="B4" s="174" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="174"/>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="126"/>
+      <c r="B5" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="174"/>
+      <c r="D5" t="s">
         <v>213</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="126"/>
+      <c r="B6" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="174"/>
+      <c r="D6" t="s">
         <v>214</v>
       </c>
-      <c r="H1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="126"/>
+      <c r="B7" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="174"/>
+      <c r="D7" t="s">
         <v>218</v>
-      </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" t="s">
-        <v>220</v>
       </c>
       <c r="E7" t="s">
         <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
         <v>218</v>
       </c>
       <c r="J7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="126"/>
+      <c r="B8" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="174"/>
+      <c r="D8" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D8" t="s">
-        <v>221</v>
-      </c>
       <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="126"/>
+      <c r="B9" s="174" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="174"/>
+      <c r="D9" t="s">
         <v>220</v>
       </c>
-      <c r="F8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E9" t="s">
         <v>220</v>
       </c>
-      <c r="J8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" t="s">
-        <v>221</v>
-      </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
-        <v>221</v>
-      </c>
-      <c r="J9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C10" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="K9" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="126"/>
+      <c r="B10" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" t="s">
-        <v>224</v>
+        <v>236</v>
+      </c>
+      <c r="L10" t="s">
+        <v>236</v>
+      </c>
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="126"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="H11" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="J11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C12" t="s">
-        <v>212</v>
+        <v>239</v>
+      </c>
+      <c r="L11" t="s">
+        <v>239</v>
+      </c>
+      <c r="M11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="126"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" t="s">
-        <v>225</v>
+        <v>233</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="126"/>
+      <c r="B13" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="J13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="K13" t="s">
+        <v>215</v>
+      </c>
+      <c r="M13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="126"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="29" t="s">
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="H14" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+      <c r="K14" t="s">
+        <v>216</v>
+      </c>
+      <c r="M14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="D15" t="s">
         <v>227</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="J15" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F16" t="s">
         <v>235</v>
@@ -10028,47 +11356,790 @@
         <v>235</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="126"/>
+      <c r="B17" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="126"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" t="s">
+        <v>217</v>
+      </c>
+      <c r="G19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" t="s">
+        <v>217</v>
+      </c>
+      <c r="I19" t="s">
+        <v>217</v>
+      </c>
+      <c r="J19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="174" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="174"/>
+      <c r="C20" s="174"/>
+      <c r="D20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="175" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="174" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="B17" t="s">
+      <c r="F21" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="C17" t="s">
+      <c r="G21" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H21" s="95" t="s">
         <v>229</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I21" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="L21" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="M21" s="95" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="126"/>
+      <c r="B22" s="174" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="174"/>
+      <c r="D22" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="F17" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" t="s">
-        <v>229</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="E22" s="95"/>
+      <c r="F22" s="95" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>229</v>
-      </c>
-      <c r="I18" t="s">
-        <v>229</v>
-      </c>
+      <c r="G22" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="I22" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="J22" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" s="95" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="126"/>
+      <c r="B23" s="174" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="174"/>
+      <c r="D23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" s="95" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="126"/>
+      <c r="B24" s="174" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="174"/>
+      <c r="D24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" s="95" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" s="95" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="126"/>
+      <c r="B25" s="174" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="174"/>
+      <c r="D25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="95" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" s="95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="126"/>
+      <c r="B26" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="174"/>
+      <c r="D26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" s="95" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="126"/>
+      <c r="B27" s="174" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="174"/>
+      <c r="D27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="F27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="I27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="126"/>
+      <c r="B28" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="I28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" s="95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="I29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="E30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="126"/>
+      <c r="B31" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="E31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="G31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="126"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="F32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="126"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="126"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="K34" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="126"/>
+      <c r="B35" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="H35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" s="95"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="126"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="I36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="M36" s="95"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="126"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="I37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="J37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="M37" s="95"/>
     </row>
   </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rcp_phase234_planning.xlsx
+++ b/rcp_phase234_planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5406951-72B6-3548-A88D-8F74E36C8997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05243823-F5C8-3F4B-9955-5219FC16165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="267">
   <si>
     <t>/24</t>
   </si>
@@ -799,7 +799,55 @@
     <t>&gt;</t>
   </si>
   <si>
-    <t>Fa0/5</t>
+    <t>traceroute 192.168.7.129</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.130</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.193</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.194</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.1</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.2</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.3</t>
+  </si>
+  <si>
+    <t>traceroute 8.8.8.8</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.245</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.249</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.190</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.222</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.253</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.250</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.126</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.246</t>
+  </si>
+  <si>
+    <t>traceroute 192.168.7.254</t>
   </si>
 </sst>
 </file>
@@ -835,7 +883,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -935,12 +983,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC09FE5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,12 +1630,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1612,32 +1648,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7982,10 +8000,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA9DF8F-8295-3944-9B9F-E4CC6C25A6ED}">
-  <dimension ref="A1:BH62"/>
+  <dimension ref="A1:BV62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT11" sqref="AT11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8018,21 +8036,34 @@
     <col min="45" max="45" width="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="1.6640625" customWidth="1"/>
-    <col min="48" max="48" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.1640625" customWidth="1"/>
-    <col min="51" max="51" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.5" customWidth="1"/>
+    <col min="50" max="50" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="7.5" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.5" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="1.6640625" customWidth="1"/>
+    <col min="62" max="62" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.5" customWidth="1"/>
+    <col min="64" max="64" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -8070,8 +8101,35 @@
       <c r="AQ1"/>
       <c r="AR1"/>
       <c r="AS1"/>
-    </row>
-    <row r="2" spans="1:60" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+    </row>
+    <row r="2" spans="1:74" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2" s="169" t="s">
         <v>55</v>
@@ -8162,43 +8220,35 @@
       </c>
       <c r="AS2" s="137"/>
       <c r="AT2" s="137"/>
-      <c r="AV2" s="191" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW2" s="191"/>
-      <c r="AX2" s="191"/>
-      <c r="AY2" s="192" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" s="192" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA2" s="192" t="s">
-        <v>77</v>
-      </c>
-      <c r="BB2" s="192" t="s">
-        <v>78</v>
-      </c>
-      <c r="BC2" s="192" t="s">
-        <v>209</v>
-      </c>
-      <c r="BD2" s="192" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE2" s="192" t="s">
-        <v>211</v>
-      </c>
-      <c r="BF2" s="192" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG2" s="192" t="s">
-        <v>81</v>
-      </c>
-      <c r="BH2" s="192" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+      <c r="BN2"/>
+      <c r="BO2"/>
+      <c r="BP2"/>
+      <c r="BQ2"/>
+      <c r="BR2"/>
+      <c r="BS2"/>
+      <c r="BT2"/>
+      <c r="BU2"/>
+      <c r="BV2"/>
+    </row>
+    <row r="3" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="170"/>
       <c r="C3" s="76">
         <v>0</v>
@@ -8292,25 +8342,8 @@
       <c r="AT3" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="AV3" s="191" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW3" s="191"/>
-      <c r="AX3" s="191"/>
-      <c r="AY3" s="182" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ3" s="183"/>
-      <c r="BA3" s="183"/>
-      <c r="BB3" s="183"/>
-      <c r="BC3" s="183"/>
-      <c r="BD3" s="183"/>
-      <c r="BE3" s="183"/>
-      <c r="BF3" s="183"/>
-      <c r="BG3" s="183"/>
-      <c r="BH3" s="184"/>
-    </row>
-    <row r="4" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66" t="s">
         <v>6</v>
       </c>
@@ -8388,27 +8421,8 @@
       <c r="AT4" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AV4" s="193" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW4" s="191" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX4" s="191"/>
-      <c r="AY4" s="188"/>
-      <c r="AZ4" s="183" t="s">
-        <v>226</v>
-      </c>
-      <c r="BA4" s="183"/>
-      <c r="BB4" s="183"/>
-      <c r="BC4" s="183"/>
-      <c r="BD4" s="183"/>
-      <c r="BE4" s="183"/>
-      <c r="BF4" s="183"/>
-      <c r="BG4" s="183"/>
-      <c r="BH4" s="184"/>
-    </row>
-    <row r="5" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="66" t="s">
         <v>6</v>
       </c>
@@ -8498,27 +8512,8 @@
       <c r="AT5" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AV5" s="193"/>
-      <c r="AW5" s="191" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX5" s="191"/>
-      <c r="AY5" s="185" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ5" s="189"/>
-      <c r="BA5" s="183" t="s">
-        <v>212</v>
-      </c>
-      <c r="BB5" s="183"/>
-      <c r="BC5" s="183"/>
-      <c r="BD5" s="183"/>
-      <c r="BE5" s="183"/>
-      <c r="BF5" s="183"/>
-      <c r="BG5" s="183"/>
-      <c r="BH5" s="184"/>
-    </row>
-    <row r="6" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="66" t="s">
         <v>6</v>
       </c>
@@ -8588,29 +8583,10 @@
       </c>
       <c r="AQ6" s="103"/>
       <c r="AR6" s="103"/>
-      <c r="AS6" s="179"/>
+      <c r="AS6" s="177"/>
       <c r="AT6" s="103"/>
-      <c r="AV6" s="193"/>
-      <c r="AW6" s="191" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX6" s="191"/>
-      <c r="AY6" s="182" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ6" s="183"/>
-      <c r="BA6" s="189"/>
-      <c r="BB6" s="183" t="s">
-        <v>213</v>
-      </c>
-      <c r="BC6" s="183"/>
-      <c r="BD6" s="183"/>
-      <c r="BE6" s="183"/>
-      <c r="BF6" s="183"/>
-      <c r="BG6" s="183"/>
-      <c r="BH6" s="184"/>
-    </row>
-    <row r="7" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="66" t="s">
         <v>6</v>
       </c>
@@ -8692,27 +8668,8 @@
       <c r="AT7" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="AV7" s="193"/>
-      <c r="AW7" s="191" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX7" s="191"/>
-      <c r="AY7" s="182" t="s">
-        <v>214</v>
-      </c>
-      <c r="AZ7" s="183"/>
-      <c r="BA7" s="183"/>
-      <c r="BB7" s="189"/>
-      <c r="BC7" s="183" t="s">
-        <v>214</v>
-      </c>
-      <c r="BD7" s="183"/>
-      <c r="BE7" s="183"/>
-      <c r="BF7" s="183"/>
-      <c r="BG7" s="183"/>
-      <c r="BH7" s="184"/>
-    </row>
-    <row r="8" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="66" t="s">
         <v>4</v>
       </c>
@@ -8792,27 +8749,8 @@
       <c r="AT8" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="AV8" s="193"/>
-      <c r="AW8" s="191" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX8" s="191"/>
-      <c r="AY8" s="182" t="s">
-        <v>218</v>
-      </c>
-      <c r="AZ8" s="183"/>
-      <c r="BA8" s="183"/>
-      <c r="BB8" s="183"/>
-      <c r="BC8" s="189"/>
-      <c r="BD8" s="183" t="s">
-        <v>218</v>
-      </c>
-      <c r="BE8" s="183"/>
-      <c r="BF8" s="183"/>
-      <c r="BG8" s="183"/>
-      <c r="BH8" s="184"/>
-    </row>
-    <row r="9" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="66" t="s">
         <v>3</v>
       </c>
@@ -8888,29 +8826,10 @@
       </c>
       <c r="AQ9" s="103"/>
       <c r="AR9" s="103"/>
-      <c r="AS9" s="179"/>
+      <c r="AS9" s="177"/>
       <c r="AT9" s="103"/>
-      <c r="AV9" s="193"/>
-      <c r="AW9" s="191" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX9" s="191"/>
-      <c r="AY9" s="182" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ9" s="183"/>
-      <c r="BA9" s="183"/>
-      <c r="BB9" s="183"/>
-      <c r="BC9" s="183"/>
-      <c r="BD9" s="189"/>
-      <c r="BE9" s="183" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF9" s="183"/>
-      <c r="BG9" s="183"/>
-      <c r="BH9" s="184"/>
-    </row>
-    <row r="10" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="66" t="s">
         <v>2</v>
       </c>
@@ -8990,27 +8909,8 @@
       <c r="AT10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="AV10" s="193"/>
-      <c r="AW10" s="191" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX10" s="191"/>
-      <c r="AY10" s="182" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ10" s="183"/>
-      <c r="BA10" s="183"/>
-      <c r="BB10" s="183"/>
-      <c r="BC10" s="183"/>
-      <c r="BD10" s="183"/>
-      <c r="BE10" s="189"/>
-      <c r="BF10" s="183" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG10" s="183"/>
-      <c r="BH10" s="184"/>
-    </row>
-    <row r="11" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="66" t="s">
         <v>1</v>
       </c>
@@ -9070,29 +8970,8 @@
       <c r="AH11" s="73"/>
       <c r="AI11" s="74"/>
       <c r="AJ11" s="74"/>
-      <c r="AV11" s="193"/>
-      <c r="AW11" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX11" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY11" s="182" t="s">
-        <v>236</v>
-      </c>
-      <c r="AZ11" s="183"/>
-      <c r="BA11" s="183"/>
-      <c r="BB11" s="183"/>
-      <c r="BC11" s="183"/>
-      <c r="BD11" s="183"/>
-      <c r="BE11" s="183"/>
-      <c r="BF11" s="189"/>
-      <c r="BG11" s="183" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH11" s="184"/>
-    </row>
-    <row r="12" spans="1:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="171" t="s">
         <v>97</v>
       </c>
@@ -9133,27 +9012,8 @@
       <c r="AJ12" s="136">
         <v>252</v>
       </c>
-      <c r="AV12" s="193"/>
-      <c r="AW12" s="193"/>
-      <c r="AX12" s="194" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY12" s="182" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ12" s="183"/>
-      <c r="BA12" s="183"/>
-      <c r="BB12" s="183"/>
-      <c r="BC12" s="183"/>
-      <c r="BD12" s="183"/>
-      <c r="BE12" s="183"/>
-      <c r="BF12" s="189"/>
-      <c r="BG12" s="183" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH12" s="184"/>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B13" s="172"/>
       <c r="C13" s="151" t="s">
         <v>1</v>
@@ -9190,27 +9050,11 @@
       </c>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="126"/>
-      <c r="AV13" s="193"/>
-      <c r="AW13" s="193"/>
-      <c r="AX13" s="194" t="s">
-        <v>250</v>
-      </c>
-      <c r="AY13" s="182" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ13" s="183"/>
-      <c r="BA13" s="183"/>
-      <c r="BB13" s="183"/>
-      <c r="BC13" s="183"/>
-      <c r="BD13" s="183"/>
-      <c r="BE13" s="183"/>
-      <c r="BF13" s="189"/>
-      <c r="BG13" s="183" t="s">
-        <v>233</v>
-      </c>
-      <c r="BH13" s="184"/>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="BB13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B14" s="172"/>
       <c r="C14" s="151"/>
       <c r="D14" s="151"/>
@@ -9249,29 +9093,8 @@
       <c r="AJ14" s="60">
         <v>192</v>
       </c>
-      <c r="AV14" s="193"/>
-      <c r="AW14" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX14" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY14" s="182" t="s">
-        <v>215</v>
-      </c>
-      <c r="AZ14" s="183"/>
-      <c r="BA14" s="183"/>
-      <c r="BB14" s="183"/>
-      <c r="BC14" s="183"/>
-      <c r="BD14" s="183"/>
-      <c r="BE14" s="183"/>
-      <c r="BF14" s="183"/>
-      <c r="BG14" s="189"/>
-      <c r="BH14" s="187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B15" s="172"/>
       <c r="C15" s="151"/>
       <c r="D15" s="151"/>
@@ -9310,27 +9133,8 @@
       <c r="AJ15" s="56">
         <v>224</v>
       </c>
-      <c r="AV15" s="193"/>
-      <c r="AW15" s="193"/>
-      <c r="AX15" s="194" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY15" s="182" t="s">
-        <v>216</v>
-      </c>
-      <c r="AZ15" s="183"/>
-      <c r="BA15" s="183"/>
-      <c r="BB15" s="183"/>
-      <c r="BC15" s="183"/>
-      <c r="BD15" s="183"/>
-      <c r="BE15" s="183"/>
-      <c r="BF15" s="183"/>
-      <c r="BG15" s="189"/>
-      <c r="BH15" s="187" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B16" s="172"/>
       <c r="C16" s="151"/>
       <c r="D16" s="151"/>
@@ -9371,27 +9175,8 @@
       <c r="AJ16" s="136">
         <v>252</v>
       </c>
-      <c r="AV16" s="193"/>
-      <c r="AW16" s="193"/>
-      <c r="AX16" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY16" s="182" t="s">
-        <v>227</v>
-      </c>
-      <c r="AZ16" s="183"/>
-      <c r="BA16" s="183"/>
-      <c r="BB16" s="183"/>
-      <c r="BC16" s="183"/>
-      <c r="BD16" s="183"/>
-      <c r="BE16" s="183"/>
-      <c r="BF16" s="183"/>
-      <c r="BG16" s="189"/>
-      <c r="BH16" s="187" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B17" s="172"/>
       <c r="C17" s="151"/>
       <c r="D17" s="151"/>
@@ -9428,27 +9213,8 @@
       </c>
       <c r="AI17" s="60"/>
       <c r="AJ17" s="126"/>
-      <c r="AV17" s="193"/>
-      <c r="AW17" s="193"/>
-      <c r="AX17" s="194" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY17" s="182" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ17" s="183"/>
-      <c r="BA17" s="183"/>
-      <c r="BB17" s="183"/>
-      <c r="BC17" s="183"/>
-      <c r="BD17" s="183"/>
-      <c r="BE17" s="183"/>
-      <c r="BF17" s="183"/>
-      <c r="BG17" s="189"/>
-      <c r="BH17" s="187" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B18" s="173"/>
       <c r="C18" s="151"/>
       <c r="D18" s="151"/>
@@ -9491,29 +9257,8 @@
       <c r="AJ18" s="56">
         <v>128</v>
       </c>
-      <c r="AV18" s="193"/>
-      <c r="AW18" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX18" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY18" s="182" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ18" s="183"/>
-      <c r="BA18" s="183"/>
-      <c r="BB18" s="183"/>
-      <c r="BC18" s="183"/>
-      <c r="BD18" s="183"/>
-      <c r="BE18" s="183"/>
-      <c r="BF18" s="183"/>
-      <c r="BG18" s="186" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH18" s="190"/>
-    </row>
-    <row r="19" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD19" s="71" t="s">
         <v>209</v>
       </c>
@@ -9535,27 +9280,8 @@
       <c r="AJ19" s="136">
         <v>128</v>
       </c>
-      <c r="AV19" s="193"/>
-      <c r="AW19" s="193"/>
-      <c r="AX19" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY19" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="AZ19" s="183"/>
-      <c r="BA19" s="183"/>
-      <c r="BB19" s="183"/>
-      <c r="BC19" s="183"/>
-      <c r="BD19" s="183"/>
-      <c r="BE19" s="183"/>
-      <c r="BF19" s="183"/>
-      <c r="BG19" s="186" t="s">
-        <v>238</v>
-      </c>
-      <c r="BH19" s="190"/>
-    </row>
-    <row r="20" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD20" s="70" t="s">
         <v>210</v>
       </c>
@@ -9571,27 +9297,8 @@
       </c>
       <c r="AI20" s="126"/>
       <c r="AJ20" s="126"/>
-      <c r="AV20" s="193"/>
-      <c r="AW20" s="193"/>
-      <c r="AX20" s="194" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY20" s="182" t="s">
-        <v>217</v>
-      </c>
-      <c r="AZ20" s="183"/>
-      <c r="BA20" s="183"/>
-      <c r="BB20" s="183"/>
-      <c r="BC20" s="183"/>
-      <c r="BD20" s="183"/>
-      <c r="BE20" s="183"/>
-      <c r="BF20" s="183"/>
-      <c r="BG20" s="186" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH20" s="190"/>
-    </row>
-    <row r="21" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD21" s="69" t="s">
         <v>211</v>
       </c>
@@ -9607,25 +9314,8 @@
       </c>
       <c r="AI21" s="127"/>
       <c r="AJ21" s="127"/>
-      <c r="AV21" s="191" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW21" s="191"/>
-      <c r="AX21" s="191"/>
-      <c r="AY21" s="182" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ21" s="183"/>
-      <c r="BA21" s="183"/>
-      <c r="BB21" s="183"/>
-      <c r="BC21" s="183"/>
-      <c r="BD21" s="183"/>
-      <c r="BE21" s="183"/>
-      <c r="BF21" s="183"/>
-      <c r="BG21" s="183"/>
-      <c r="BH21" s="184"/>
-    </row>
-    <row r="22" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD22" s="142" t="s">
         <v>98</v>
       </c>
@@ -9641,27 +9331,8 @@
       <c r="AH22" s="107"/>
       <c r="AI22" s="107"/>
       <c r="AJ22" s="107"/>
-      <c r="AV22" s="195" t="s">
-        <v>248</v>
-      </c>
-      <c r="AW22" s="191" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX22" s="191"/>
-      <c r="AY22" s="188"/>
-      <c r="AZ22" s="183" t="s">
-        <v>229</v>
-      </c>
-      <c r="BA22" s="183"/>
-      <c r="BB22" s="183"/>
-      <c r="BC22" s="183"/>
-      <c r="BD22" s="183"/>
-      <c r="BE22" s="183"/>
-      <c r="BF22" s="183"/>
-      <c r="BG22" s="183"/>
-      <c r="BH22" s="184"/>
-    </row>
-    <row r="23" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD23" s="143"/>
       <c r="AE23" s="58" t="s">
         <v>178</v>
@@ -9673,27 +9344,8 @@
       <c r="AH23" s="99"/>
       <c r="AI23" s="99"/>
       <c r="AJ23" s="99"/>
-      <c r="AV23" s="193"/>
-      <c r="AW23" s="191" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX23" s="191"/>
-      <c r="AY23" s="185" t="s">
-        <v>228</v>
-      </c>
-      <c r="AZ23" s="189"/>
-      <c r="BA23" s="183" t="s">
-        <v>228</v>
-      </c>
-      <c r="BB23" s="183"/>
-      <c r="BC23" s="183"/>
-      <c r="BD23" s="183"/>
-      <c r="BE23" s="183"/>
-      <c r="BF23" s="183"/>
-      <c r="BG23" s="183"/>
-      <c r="BH23" s="184"/>
-    </row>
-    <row r="24" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD24" s="144"/>
       <c r="AE24" s="54" t="s">
         <v>179</v>
@@ -9705,27 +9357,8 @@
       <c r="AH24" s="128"/>
       <c r="AI24" s="128"/>
       <c r="AJ24" s="128"/>
-      <c r="AV24" s="193"/>
-      <c r="AW24" s="191" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX24" s="191"/>
-      <c r="AY24" s="182" t="s">
-        <v>230</v>
-      </c>
-      <c r="AZ24" s="183"/>
-      <c r="BA24" s="189"/>
-      <c r="BB24" s="183" t="s">
-        <v>230</v>
-      </c>
-      <c r="BC24" s="183"/>
-      <c r="BD24" s="183"/>
-      <c r="BE24" s="183"/>
-      <c r="BF24" s="183"/>
-      <c r="BG24" s="183"/>
-      <c r="BH24" s="184"/>
-    </row>
-    <row r="25" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD25" s="142" t="s">
         <v>99</v>
       </c>
@@ -9741,27 +9374,8 @@
       <c r="AH25" s="107"/>
       <c r="AI25" s="107"/>
       <c r="AJ25" s="107"/>
-      <c r="AV25" s="193"/>
-      <c r="AW25" s="191" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX25" s="191"/>
-      <c r="AY25" s="182" t="s">
-        <v>231</v>
-      </c>
-      <c r="AZ25" s="183"/>
-      <c r="BA25" s="183"/>
-      <c r="BB25" s="189"/>
-      <c r="BC25" s="183" t="s">
-        <v>231</v>
-      </c>
-      <c r="BD25" s="183"/>
-      <c r="BE25" s="183"/>
-      <c r="BF25" s="183"/>
-      <c r="BG25" s="183"/>
-      <c r="BH25" s="184"/>
-    </row>
-    <row r="26" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD26" s="143"/>
       <c r="AE26" s="58" t="s">
         <v>178</v>
@@ -9773,27 +9387,8 @@
       <c r="AH26" s="99"/>
       <c r="AI26" s="99"/>
       <c r="AJ26" s="99"/>
-      <c r="AV26" s="193"/>
-      <c r="AW26" s="191" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX26" s="191"/>
-      <c r="AY26" s="182" t="s">
-        <v>222</v>
-      </c>
-      <c r="AZ26" s="183"/>
-      <c r="BA26" s="183"/>
-      <c r="BB26" s="183"/>
-      <c r="BC26" s="189"/>
-      <c r="BD26" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE26" s="183"/>
-      <c r="BF26" s="183"/>
-      <c r="BG26" s="183"/>
-      <c r="BH26" s="184"/>
-    </row>
-    <row r="27" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD27" s="144"/>
       <c r="AE27" s="54" t="s">
         <v>179</v>
@@ -9805,27 +9400,8 @@
       <c r="AH27" s="128"/>
       <c r="AI27" s="128"/>
       <c r="AJ27" s="128"/>
-      <c r="AV27" s="193"/>
-      <c r="AW27" s="191" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX27" s="191"/>
-      <c r="AY27" s="182" t="s">
-        <v>223</v>
-      </c>
-      <c r="AZ27" s="183"/>
-      <c r="BA27" s="183"/>
-      <c r="BB27" s="183"/>
-      <c r="BC27" s="183"/>
-      <c r="BD27" s="189"/>
-      <c r="BE27" s="183" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF27" s="183"/>
-      <c r="BG27" s="183"/>
-      <c r="BH27" s="184"/>
-    </row>
-    <row r="28" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD28" s="142" t="s">
         <v>101</v>
       </c>
@@ -9841,27 +9417,8 @@
       <c r="AH28" s="107"/>
       <c r="AI28" s="107"/>
       <c r="AJ28" s="107"/>
-      <c r="AV28" s="193"/>
-      <c r="AW28" s="191" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX28" s="191"/>
-      <c r="AY28" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ28" s="183"/>
-      <c r="BA28" s="183"/>
-      <c r="BB28" s="183"/>
-      <c r="BC28" s="183"/>
-      <c r="BD28" s="183"/>
-      <c r="BE28" s="189"/>
-      <c r="BF28" s="183" t="s">
-        <v>224</v>
-      </c>
-      <c r="BG28" s="183"/>
-      <c r="BH28" s="184"/>
-    </row>
-    <row r="29" spans="2:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
       <c r="AD29" s="143"/>
       <c r="AE29" s="58" t="s">
         <v>178</v>
@@ -9873,29 +9430,8 @@
       <c r="AH29" s="99"/>
       <c r="AI29" s="99"/>
       <c r="AJ29" s="99"/>
-      <c r="AV29" s="193"/>
-      <c r="AW29" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX29" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY29" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="AZ29" s="183"/>
-      <c r="BA29" s="183"/>
-      <c r="BB29" s="183"/>
-      <c r="BC29" s="183"/>
-      <c r="BD29" s="183"/>
-      <c r="BE29" s="183"/>
-      <c r="BF29" s="189"/>
-      <c r="BG29" s="183" t="s">
-        <v>225</v>
-      </c>
-      <c r="BH29" s="184"/>
-    </row>
-    <row r="30" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD30" s="143"/>
       <c r="AE30" s="58" t="s">
         <v>179</v>
@@ -9907,27 +9443,8 @@
       <c r="AH30" s="99"/>
       <c r="AI30" s="99"/>
       <c r="AJ30" s="99"/>
-      <c r="AV30" s="193"/>
-      <c r="AW30" s="193"/>
-      <c r="AX30" s="194" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY30" s="182" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ30" s="183"/>
-      <c r="BA30" s="183"/>
-      <c r="BB30" s="183"/>
-      <c r="BC30" s="183"/>
-      <c r="BD30" s="183"/>
-      <c r="BE30" s="183"/>
-      <c r="BF30" s="189"/>
-      <c r="BG30" s="183" t="s">
-        <v>243</v>
-      </c>
-      <c r="BH30" s="184"/>
-    </row>
-    <row r="31" spans="2:60" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD31" s="144"/>
       <c r="AE31" s="54" t="s">
         <v>180</v>
@@ -9939,50 +9456,9 @@
       <c r="AH31" s="128"/>
       <c r="AI31" s="128"/>
       <c r="AJ31" s="128"/>
-      <c r="AV31" s="193"/>
-      <c r="AW31" s="193"/>
-      <c r="AX31" s="194" t="s">
-        <v>250</v>
-      </c>
-      <c r="AY31" s="182" t="s">
-        <v>242</v>
-      </c>
-      <c r="AZ31" s="183"/>
-      <c r="BA31" s="183"/>
-      <c r="BB31" s="183"/>
-      <c r="BC31" s="183"/>
-      <c r="BD31" s="183"/>
-      <c r="BE31" s="183"/>
-      <c r="BF31" s="189"/>
-      <c r="BG31" s="183" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH31" s="184"/>
-    </row>
-    <row r="32" spans="2:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AV32" s="193"/>
-      <c r="AW32" s="193" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX32" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY32" s="182" t="s">
-        <v>240</v>
-      </c>
-      <c r="AZ32" s="183"/>
-      <c r="BA32" s="183"/>
-      <c r="BB32" s="183"/>
-      <c r="BC32" s="183"/>
-      <c r="BD32" s="183"/>
-      <c r="BE32" s="183"/>
-      <c r="BF32" s="183"/>
-      <c r="BG32" s="189"/>
-      <c r="BH32" s="187" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="30:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD33" s="138" t="s">
         <v>51</v>
       </c>
@@ -10002,27 +9478,8 @@
       <c r="AJ33" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="AV33" s="193"/>
-      <c r="AW33" s="193"/>
-      <c r="AX33" s="194" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY33" s="182" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ33" s="183"/>
-      <c r="BA33" s="183"/>
-      <c r="BB33" s="183"/>
-      <c r="BC33" s="183"/>
-      <c r="BD33" s="183"/>
-      <c r="BE33" s="183"/>
-      <c r="BF33" s="183"/>
-      <c r="BG33" s="189"/>
-      <c r="BH33" s="187" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="30:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD34" s="139"/>
       <c r="AE34" s="139"/>
       <c r="AF34" s="139"/>
@@ -10030,27 +9487,8 @@
       <c r="AH34" s="137"/>
       <c r="AI34" s="137"/>
       <c r="AJ34" s="137"/>
-      <c r="AV34" s="193"/>
-      <c r="AW34" s="193"/>
-      <c r="AX34" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY34" s="182" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ34" s="183"/>
-      <c r="BA34" s="183"/>
-      <c r="BB34" s="183"/>
-      <c r="BC34" s="183"/>
-      <c r="BD34" s="183"/>
-      <c r="BE34" s="183"/>
-      <c r="BF34" s="183"/>
-      <c r="BG34" s="189"/>
-      <c r="BH34" s="187" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="30:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD35" s="141"/>
       <c r="AE35" s="65" t="s">
         <v>167</v>
@@ -10066,27 +9504,8 @@
       <c r="AJ35" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="AV35" s="193"/>
-      <c r="AW35" s="193"/>
-      <c r="AX35" s="194" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY35" s="182" t="s">
-        <v>244</v>
-      </c>
-      <c r="AZ35" s="183"/>
-      <c r="BA35" s="183"/>
-      <c r="BB35" s="183"/>
-      <c r="BC35" s="183"/>
-      <c r="BD35" s="183"/>
-      <c r="BE35" s="183"/>
-      <c r="BF35" s="183"/>
-      <c r="BG35" s="189"/>
-      <c r="BH35" s="187" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="30:60" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="30:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD36" s="71" t="s">
         <v>75</v>
       </c>
@@ -10108,29 +9527,8 @@
       <c r="AJ36" s="136">
         <v>192</v>
       </c>
-      <c r="AV36" s="193"/>
-      <c r="AW36" s="193" t="s">
-        <v>82</v>
-      </c>
-      <c r="AX36" s="194" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY36" s="182" t="s">
-        <v>245</v>
-      </c>
-      <c r="AZ36" s="183"/>
-      <c r="BA36" s="183"/>
-      <c r="BB36" s="183"/>
-      <c r="BC36" s="183"/>
-      <c r="BD36" s="183"/>
-      <c r="BE36" s="183"/>
-      <c r="BF36" s="183"/>
-      <c r="BG36" s="186" t="s">
-        <v>245</v>
-      </c>
-      <c r="BH36" s="190"/>
-    </row>
-    <row r="37" spans="30:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD37" s="69" t="s">
         <v>73</v>
       </c>
@@ -10146,27 +9544,8 @@
       </c>
       <c r="AI37" s="127"/>
       <c r="AJ37" s="127"/>
-      <c r="AV37" s="193"/>
-      <c r="AW37" s="193"/>
-      <c r="AX37" s="194" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY37" s="182" t="s">
-        <v>246</v>
-      </c>
-      <c r="AZ37" s="183"/>
-      <c r="BA37" s="183"/>
-      <c r="BB37" s="183"/>
-      <c r="BC37" s="183"/>
-      <c r="BD37" s="183"/>
-      <c r="BE37" s="183"/>
-      <c r="BF37" s="183"/>
-      <c r="BG37" s="186" t="s">
-        <v>246</v>
-      </c>
-      <c r="BH37" s="190"/>
-    </row>
-    <row r="38" spans="30:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD38" s="71" t="s">
         <v>77</v>
       </c>
@@ -10188,27 +9567,8 @@
       <c r="AJ38" s="136">
         <v>224</v>
       </c>
-      <c r="AV38" s="193"/>
-      <c r="AW38" s="193"/>
-      <c r="AX38" s="194" t="s">
-        <v>174</v>
-      </c>
-      <c r="AY38" s="182" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ38" s="183"/>
-      <c r="BA38" s="183"/>
-      <c r="BB38" s="183"/>
-      <c r="BC38" s="183"/>
-      <c r="BD38" s="183"/>
-      <c r="BE38" s="183"/>
-      <c r="BF38" s="183"/>
-      <c r="BG38" s="186" t="s">
-        <v>221</v>
-      </c>
-      <c r="BH38" s="190"/>
-    </row>
-    <row r="39" spans="30:60" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD39" s="69" t="s">
         <v>78</v>
       </c>
@@ -10225,7 +9585,7 @@
       <c r="AI39" s="127"/>
       <c r="AJ39" s="127"/>
     </row>
-    <row r="40" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD40" s="142" t="s">
         <v>80</v>
       </c>
@@ -10242,15 +9602,15 @@
       <c r="AI40" s="63"/>
       <c r="AJ40" s="68"/>
     </row>
-    <row r="41" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD41" s="143"/>
-      <c r="AE41" s="176" t="s">
+      <c r="AE41" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="AF41" s="177" t="s">
+      <c r="AF41" s="175" t="s">
         <v>182</v>
       </c>
-      <c r="AG41" s="178" t="s">
+      <c r="AG41" s="176" t="s">
         <v>68</v>
       </c>
       <c r="AH41" s="72">
@@ -10261,7 +9621,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="42" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD42" s="144"/>
       <c r="AE42" s="54" t="s">
         <v>174</v>
@@ -10278,7 +9638,7 @@
       <c r="AI42" s="74"/>
       <c r="AJ42" s="127"/>
     </row>
-    <row r="43" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="43" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD43" s="142" t="s">
         <v>81</v>
       </c>
@@ -10299,7 +9659,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="44" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD44" s="143"/>
       <c r="AE44" s="58" t="s">
         <v>176</v>
@@ -10318,15 +9678,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="45" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD45" s="143"/>
-      <c r="AE45" s="176" t="s">
+      <c r="AE45" s="174" t="s">
         <v>175</v>
       </c>
-      <c r="AF45" s="177" t="s">
+      <c r="AF45" s="175" t="s">
         <v>183</v>
       </c>
-      <c r="AG45" s="178" t="s">
+      <c r="AG45" s="176" t="s">
         <v>66</v>
       </c>
       <c r="AH45" s="72">
@@ -10337,7 +9697,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="46" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD46" s="144"/>
       <c r="AE46" s="54" t="s">
         <v>174</v>
@@ -10354,7 +9714,7 @@
       <c r="AI46" s="56"/>
       <c r="AJ46" s="127"/>
     </row>
-    <row r="47" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD47" s="142" t="s">
         <v>82</v>
       </c>
@@ -10375,7 +9735,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="30:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD48" s="143"/>
       <c r="AE48" s="58" t="s">
         <v>175</v>
@@ -10444,12 +9804,12 @@
       <c r="AF51" s="60" t="s">
         <v>190</v>
       </c>
-      <c r="AG51" s="181"/>
+      <c r="AG51" s="179"/>
       <c r="AH51">
         <v>2</v>
       </c>
-      <c r="AI51" s="180"/>
-      <c r="AJ51" s="180"/>
+      <c r="AI51" s="178"/>
+      <c r="AJ51" s="178"/>
     </row>
     <row r="52" spans="30:36" x14ac:dyDescent="0.2">
       <c r="AD52" s="69" t="s">
@@ -10611,69 +9971,7 @@
       <c r="AJ62" s="128"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
-    <mergeCell ref="AY35:BF35"/>
-    <mergeCell ref="AY36:BF36"/>
-    <mergeCell ref="AY37:BF37"/>
-    <mergeCell ref="AY38:BF38"/>
-    <mergeCell ref="AY31:BE31"/>
-    <mergeCell ref="BG31:BH31"/>
-    <mergeCell ref="AY32:BF32"/>
-    <mergeCell ref="AY33:BF33"/>
-    <mergeCell ref="AY34:BF34"/>
-    <mergeCell ref="AY28:BD28"/>
-    <mergeCell ref="BF28:BH28"/>
-    <mergeCell ref="AY29:BE29"/>
-    <mergeCell ref="BG29:BH29"/>
-    <mergeCell ref="AY30:BE30"/>
-    <mergeCell ref="BG30:BH30"/>
-    <mergeCell ref="AY25:BA25"/>
-    <mergeCell ref="BC25:BH25"/>
-    <mergeCell ref="AY26:BB26"/>
-    <mergeCell ref="BD26:BH26"/>
-    <mergeCell ref="AY27:BC27"/>
-    <mergeCell ref="BE27:BH27"/>
-    <mergeCell ref="AY21:BH21"/>
-    <mergeCell ref="AZ22:BH22"/>
-    <mergeCell ref="BA23:BH23"/>
-    <mergeCell ref="AY24:AZ24"/>
-    <mergeCell ref="BB24:BH24"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="BG13:BH13"/>
-    <mergeCell ref="BC7:BH7"/>
-    <mergeCell ref="BD8:BH8"/>
-    <mergeCell ref="BE9:BH9"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="AY16:BF16"/>
-    <mergeCell ref="AY17:BF17"/>
-    <mergeCell ref="AY18:BF18"/>
-    <mergeCell ref="AY19:BF19"/>
-    <mergeCell ref="AY20:BF20"/>
-    <mergeCell ref="AY15:BF15"/>
-    <mergeCell ref="AY11:BE11"/>
-    <mergeCell ref="AY12:BE12"/>
-    <mergeCell ref="AY13:BE13"/>
-    <mergeCell ref="AY14:BF14"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AY7:BA7"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="AY9:BC9"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="AW36:AW38"/>
-    <mergeCell ref="AW22:AX22"/>
-    <mergeCell ref="AW23:AX23"/>
-    <mergeCell ref="AW24:AX24"/>
-    <mergeCell ref="AW25:AX25"/>
-    <mergeCell ref="AW26:AX26"/>
-    <mergeCell ref="AW27:AX27"/>
-    <mergeCell ref="AW28:AX28"/>
-    <mergeCell ref="AW11:AW13"/>
-    <mergeCell ref="AW14:AW17"/>
-    <mergeCell ref="AW18:AW20"/>
-    <mergeCell ref="AW29:AW31"/>
-    <mergeCell ref="AW32:AW35"/>
-    <mergeCell ref="AV21:AX21"/>
+  <mergeCells count="102">
     <mergeCell ref="AD59:AD62"/>
     <mergeCell ref="AG59:AG62"/>
     <mergeCell ref="AH59:AJ62"/>
@@ -10693,10 +9991,6 @@
     <mergeCell ref="AJ38:AJ39"/>
     <mergeCell ref="AD40:AD42"/>
     <mergeCell ref="AD43:AD46"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AV4:AV20"/>
-    <mergeCell ref="AV22:AV38"/>
     <mergeCell ref="AD33:AD35"/>
     <mergeCell ref="AE33:AF34"/>
     <mergeCell ref="AG33:AG35"/>
@@ -10761,17 +10055,6 @@
     <mergeCell ref="AG2:AG4"/>
     <mergeCell ref="AR3:AR4"/>
     <mergeCell ref="AM5:AM7"/>
-    <mergeCell ref="AW4:AX4"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AW7:AX7"/>
-    <mergeCell ref="AW8:AX8"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AW10:AX10"/>
-    <mergeCell ref="AY3:BH3"/>
-    <mergeCell ref="AZ4:BH4"/>
-    <mergeCell ref="BA5:BH5"/>
-    <mergeCell ref="BB6:BH6"/>
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="AN3:AN4"/>
@@ -10798,63 +10081,64 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94CD312-8AEE-C540-8CE0-403CB15EB98D}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" t="s">
+      <c r="B1" s="180"/>
+      <c r="C1" s="181" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="181" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="181" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="181" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="181" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="174" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
+      <c r="B2" s="180"/>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
       <c r="D2" t="s">
         <v>208</v>
       </c>
@@ -10882,18 +10166,17 @@
       <c r="L2" t="s">
         <v>208</v>
       </c>
-      <c r="M2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="126" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="172" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="D3" t="s">
+        <v>226</v>
+      </c>
       <c r="E3" t="s">
         <v>226</v>
       </c>
@@ -10918,17 +10201,16 @@
       <c r="L3" t="s">
         <v>226</v>
       </c>
-      <c r="M3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="126"/>
-      <c r="B4" s="174" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="172"/>
+      <c r="B4" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="174"/>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
         <v>212</v>
       </c>
       <c r="F4" t="s">
@@ -10952,20 +10234,19 @@
       <c r="L4" t="s">
         <v>212</v>
       </c>
-      <c r="M4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="126"/>
-      <c r="B5" s="174" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="172"/>
+      <c r="B5" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="174"/>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
       <c r="D5" t="s">
         <v>213</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>213</v>
       </c>
       <c r="G5" t="s">
@@ -10986,23 +10267,22 @@
       <c r="L5" t="s">
         <v>213</v>
       </c>
-      <c r="M5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="126"/>
-      <c r="B6" s="174" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="172"/>
+      <c r="B6" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="174"/>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
       <c r="D6" t="s">
         <v>214</v>
       </c>
       <c r="E6" t="s">
         <v>214</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>214</v>
       </c>
       <c r="H6" t="s">
@@ -11020,16 +10300,15 @@
       <c r="L6" t="s">
         <v>214</v>
       </c>
-      <c r="M6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="126"/>
-      <c r="B7" s="174" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="172"/>
+      <c r="B7" s="182" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="174"/>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
       <c r="D7" t="s">
         <v>218</v>
       </c>
@@ -11039,7 +10318,7 @@
       <c r="F7" t="s">
         <v>218</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>218</v>
       </c>
       <c r="I7" t="s">
@@ -11054,16 +10333,15 @@
       <c r="L7" t="s">
         <v>218</v>
       </c>
-      <c r="M7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="126"/>
-      <c r="B8" s="174" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="172"/>
+      <c r="B8" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="174"/>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
       <c r="D8" t="s">
         <v>219</v>
       </c>
@@ -11076,7 +10354,7 @@
       <c r="G8" t="s">
         <v>219</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>219</v>
       </c>
       <c r="J8" t="s">
@@ -11088,16 +10366,15 @@
       <c r="L8" t="s">
         <v>219</v>
       </c>
-      <c r="M8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="126"/>
-      <c r="B9" s="174" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="172"/>
+      <c r="B9" s="182" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="174"/>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
       <c r="D9" t="s">
         <v>220</v>
       </c>
@@ -11113,7 +10390,7 @@
       <c r="H9" t="s">
         <v>220</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>220</v>
       </c>
       <c r="K9" t="s">
@@ -11122,17 +10399,14 @@
       <c r="L9" t="s">
         <v>220</v>
       </c>
-      <c r="M9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="126"/>
-      <c r="B10" s="126" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="172"/>
+      <c r="B10" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>112</v>
+      <c r="C10" t="s">
+        <v>236</v>
       </c>
       <c r="D10" t="s">
         <v>236</v>
@@ -11152,21 +10426,18 @@
       <c r="I10" t="s">
         <v>236</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>236</v>
       </c>
       <c r="L10" t="s">
         <v>236</v>
       </c>
-      <c r="M10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="126"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="29" t="s">
-        <v>180</v>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="172"/>
+      <c r="B11" s="172"/>
+      <c r="C11" t="s">
+        <v>239</v>
       </c>
       <c r="D11" t="s">
         <v>239</v>
@@ -11186,21 +10457,18 @@
       <c r="I11" t="s">
         <v>239</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>239</v>
       </c>
       <c r="L11" t="s">
         <v>239</v>
       </c>
-      <c r="M11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="29" t="s">
-        <v>250</v>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="172"/>
+      <c r="B12" s="172"/>
+      <c r="C12" t="s">
+        <v>233</v>
       </c>
       <c r="D12" t="s">
         <v>233</v>
@@ -11220,23 +10488,20 @@
       <c r="I12" t="s">
         <v>233</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>233</v>
       </c>
       <c r="L12" t="s">
         <v>233</v>
       </c>
-      <c r="M12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="126"/>
-      <c r="B13" s="126" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="172"/>
+      <c r="B13" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>112</v>
+      <c r="C13" t="s">
+        <v>215</v>
       </c>
       <c r="D13" t="s">
         <v>215</v>
@@ -11259,18 +10524,15 @@
       <c r="J13" t="s">
         <v>215</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>215</v>
       </c>
-      <c r="M13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="126"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="29" t="s">
-        <v>176</v>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="172"/>
+      <c r="B14" s="172"/>
+      <c r="C14" t="s">
+        <v>216</v>
       </c>
       <c r="D14" t="s">
         <v>216</v>
@@ -11293,18 +10555,15 @@
       <c r="J14" t="s">
         <v>216</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>216</v>
       </c>
-      <c r="M14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="126"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="29" t="s">
-        <v>175</v>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
+      <c r="C15" t="s">
+        <v>227</v>
       </c>
       <c r="D15" t="s">
         <v>227</v>
@@ -11327,18 +10586,15 @@
       <c r="J15" t="s">
         <v>227</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>227</v>
       </c>
-      <c r="M15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="29" t="s">
-        <v>174</v>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" t="s">
+        <v>235</v>
       </c>
       <c r="D16" t="s">
         <v>235</v>
@@ -11361,20 +10617,17 @@
       <c r="J16" t="s">
         <v>235</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>235</v>
       </c>
-      <c r="M16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="126"/>
-      <c r="B17" s="126" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="172"/>
+      <c r="B17" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>112</v>
+      <c r="C17" t="s">
+        <v>237</v>
       </c>
       <c r="D17" t="s">
         <v>237</v>
@@ -11400,15 +10653,12 @@
       <c r="K17" t="s">
         <v>237</v>
       </c>
-      <c r="L17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="29" t="s">
-        <v>175</v>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" t="s">
+        <v>238</v>
       </c>
       <c r="D18" t="s">
         <v>238</v>
@@ -11434,15 +10684,12 @@
       <c r="K18" t="s">
         <v>238</v>
       </c>
-      <c r="L18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="126"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="29" t="s">
-        <v>174</v>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
+      <c r="C19" t="s">
+        <v>217</v>
       </c>
       <c r="D19" t="s">
         <v>217</v>
@@ -11468,16 +10715,15 @@
       <c r="K19" t="s">
         <v>217</v>
       </c>
-      <c r="L19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="174" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
+      <c r="B20" s="180"/>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="s">
         <v>208</v>
       </c>
@@ -11505,19 +10751,18 @@
       <c r="L20" t="s">
         <v>208</v>
       </c>
-      <c r="M20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="175" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="183" t="s">
         <v>248</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95" t="s">
+        <v>229</v>
+      </c>
       <c r="E21" s="95" t="s">
         <v>229</v>
       </c>
@@ -11534,28 +10779,27 @@
         <v>229</v>
       </c>
       <c r="J21" s="95" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="K21" s="95" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="L21" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="M21" s="95" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="126"/>
-      <c r="B22" s="174" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="172"/>
+      <c r="B22" s="182" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="95" t="s">
+      <c r="C22" s="95" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95" t="s">
+        <v>228</v>
+      </c>
       <c r="F22" s="95" t="s">
         <v>228</v>
       </c>
@@ -11569,31 +10813,30 @@
         <v>228</v>
       </c>
       <c r="J22" s="95" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K22" s="95" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L22" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="M22" s="95" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="126"/>
-      <c r="B23" s="174" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="172"/>
+      <c r="B23" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="174"/>
+      <c r="C23" s="95" t="s">
+        <v>230</v>
+      </c>
       <c r="D23" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="95"/>
+      <c r="F23" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="F23" s="95"/>
       <c r="G23" s="95" t="s">
         <v>230</v>
       </c>
@@ -11604,34 +10847,33 @@
         <v>230</v>
       </c>
       <c r="J23" s="95" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" s="95" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="L23" s="95" t="s">
-        <v>230</v>
-      </c>
-      <c r="M23" s="95" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="126"/>
-      <c r="B24" s="174" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="172"/>
+      <c r="B24" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="174"/>
+      <c r="C24" s="95" t="s">
+        <v>231</v>
+      </c>
       <c r="D24" s="95" t="s">
         <v>231</v>
       </c>
       <c r="E24" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="F24" s="95" t="s">
+      <c r="F24" s="95"/>
+      <c r="G24" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="95"/>
       <c r="H24" s="95" t="s">
         <v>231</v>
       </c>
@@ -11639,24 +10881,23 @@
         <v>231</v>
       </c>
       <c r="J24" s="95" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="K24" s="95" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L24" s="95" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" s="95" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="126"/>
-      <c r="B25" s="174" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="172"/>
+      <c r="B25" s="182" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="174"/>
+      <c r="C25" s="95" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" s="95" t="s">
         <v>222</v>
       </c>
@@ -11666,32 +10907,31 @@
       <c r="F25" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="G25" s="95" t="s">
+      <c r="G25" s="95"/>
+      <c r="H25" s="95" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="95"/>
       <c r="I25" s="95" t="s">
         <v>222</v>
       </c>
       <c r="J25" s="95" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="K25" s="95" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="L25" s="95" t="s">
-        <v>222</v>
-      </c>
-      <c r="M25" s="95" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="126"/>
-      <c r="B26" s="174" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="172"/>
+      <c r="B26" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="174"/>
+      <c r="C26" s="95" t="s">
+        <v>223</v>
+      </c>
       <c r="D26" s="95" t="s">
         <v>223</v>
       </c>
@@ -11704,29 +10944,28 @@
       <c r="G26" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="H26" s="95" t="s">
+      <c r="H26" s="95"/>
+      <c r="I26" s="95" t="s">
         <v>223</v>
       </c>
-      <c r="I26" s="95"/>
       <c r="J26" s="95" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="K26" s="95" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="L26" s="95" t="s">
-        <v>223</v>
-      </c>
-      <c r="M26" s="95" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="126"/>
-      <c r="B27" s="174" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="172"/>
+      <c r="B27" s="182" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="174"/>
+      <c r="C27" s="95" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" s="95" t="s">
         <v>224</v>
       </c>
@@ -11742,27 +10981,24 @@
       <c r="H27" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="I27" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="J27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95" t="s">
+        <v>256</v>
+      </c>
       <c r="K27" s="95" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="L27" s="95" t="s">
-        <v>224</v>
-      </c>
-      <c r="M27" s="95" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="126"/>
-      <c r="B28" s="126" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="172"/>
+      <c r="B28" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>112</v>
+      <c r="C28" s="95" t="s">
+        <v>225</v>
       </c>
       <c r="D28" s="95" t="s">
         <v>225</v>
@@ -11782,22 +11018,19 @@
       <c r="I28" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="J28" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="K28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95" t="s">
+        <v>257</v>
+      </c>
       <c r="L28" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="M28" s="95" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="126"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="29" t="s">
-        <v>180</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="172"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="95" t="s">
+        <v>243</v>
       </c>
       <c r="D29" s="95" t="s">
         <v>243</v>
@@ -11817,22 +11050,19 @@
       <c r="I29" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="K29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95" t="s">
+        <v>258</v>
+      </c>
       <c r="L29" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="M29" s="95" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="29" t="s">
-        <v>250</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="172"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="95" t="s">
+        <v>242</v>
       </c>
       <c r="D30" s="95" t="s">
         <v>242</v>
@@ -11852,24 +11082,21 @@
       <c r="I30" s="95" t="s">
         <v>242</v>
       </c>
-      <c r="J30" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="K30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95" t="s">
+        <v>259</v>
+      </c>
       <c r="L30" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="M30" s="95" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="126"/>
-      <c r="B31" s="126" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="172"/>
+      <c r="B31" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="29" t="s">
-        <v>112</v>
+      <c r="C31" s="95" t="s">
+        <v>240</v>
       </c>
       <c r="D31" s="95" t="s">
         <v>240</v>
@@ -11890,21 +11117,18 @@
         <v>240</v>
       </c>
       <c r="J31" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="K31" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="126"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="29" t="s">
-        <v>176</v>
+        <v>260</v>
+      </c>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="95" t="s">
+        <v>241</v>
       </c>
       <c r="D32" s="95" t="s">
         <v>241</v>
@@ -11925,21 +11149,18 @@
         <v>241</v>
       </c>
       <c r="J32" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="K32" s="95" t="s">
-        <v>241</v>
-      </c>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="126"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="29" t="s">
-        <v>175</v>
+        <v>261</v>
+      </c>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="172"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="95" t="s">
+        <v>232</v>
       </c>
       <c r="D33" s="95" t="s">
         <v>232</v>
@@ -11960,21 +11181,18 @@
         <v>232</v>
       </c>
       <c r="J33" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="K33" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="126"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="29" t="s">
-        <v>174</v>
+        <v>262</v>
+      </c>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="172"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="D34" s="95" t="s">
         <v>244</v>
@@ -11995,23 +11213,20 @@
         <v>244</v>
       </c>
       <c r="J34" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="K34" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="126"/>
-      <c r="B35" s="126" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="172"/>
+      <c r="B35" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>112</v>
+      <c r="C35" s="95" t="s">
+        <v>245</v>
       </c>
       <c r="D35" s="95" t="s">
         <v>245</v>
@@ -12032,21 +11247,18 @@
         <v>245</v>
       </c>
       <c r="J35" s="95" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="K35" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="L35" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="M35" s="95"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="126"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="29" t="s">
-        <v>175</v>
+        <v>264</v>
+      </c>
+      <c r="L35" s="95"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="172"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="95" t="s">
+        <v>246</v>
       </c>
       <c r="D36" s="95" t="s">
         <v>246</v>
@@ -12067,21 +11279,18 @@
         <v>246</v>
       </c>
       <c r="J36" s="95" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K36" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="L36" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="M36" s="95"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="126"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="29" t="s">
-        <v>174</v>
+        <v>265</v>
+      </c>
+      <c r="L36" s="95"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="95" t="s">
+        <v>221</v>
       </c>
       <c r="D37" s="95" t="s">
         <v>221</v>
@@ -12102,41 +11311,24 @@
         <v>221</v>
       </c>
       <c r="J37" s="95" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="K37" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="L37" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="M37" s="95"/>
+        <v>266</v>
+      </c>
+      <c r="L37" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:A19"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:A37"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B16"/>
   </mergeCells>
